--- a/PSB.xlsx
+++ b/PSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F9CA8-8EED-7A4F-845F-239E46A3EE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3C68A-CEBF-3144-BA00-B8AE5827ABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3704,7 +3704,7 @@
   <dimension ref="A1:I733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PSB.xlsx
+++ b/PSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4FBA10-FC06-044C-B784-10E23A247B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FE0C98-7FAA-5E4F-869C-25DCFAB72570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3703,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PSB.xlsx
+++ b/PSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewburgos/Desktop/BEE 4750/BEE4750FinalProject-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FE0C98-7FAA-5E4F-869C-25DCFAB72570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0365B4B5-10FA-C14D-BE1B-D3D1006EACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1092">
   <si>
     <t>name</t>
   </si>
@@ -3325,12 +3325,21 @@
   </si>
   <si>
     <t>Steam (lbs/hr)</t>
+  </si>
+  <si>
+    <t>Electric (kW)</t>
+  </si>
+  <si>
+    <t>&lt;- from clark hall data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3340,12 +3349,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3360,8 +3375,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3701,10 +3718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H733"/>
+  <dimension ref="A1:J733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F369" sqref="F369"/>
+      <selection activeCell="F2" sqref="F2:F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3712,9 +3729,10 @@
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3739,8 +3757,11 @@
       <c r="H1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3756,9 +3777,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-02 00:00:00</v>
+      <c r="F2" s="2">
+        <v>45293</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3768,8 +3788,14 @@
         <f t="array" ref="H2">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2079.728062500</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>548.81041666600004</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3785,9 +3811,8 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-03 00:00:00</v>
+      <c r="F3" s="2">
+        <v>45294</v>
       </c>
       <c r="G3" t="str" cm="1">
         <f t="array" ref="G3">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3797,8 +3822,11 @@
         <f t="array" ref="H3">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1909.234020833</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>563.16145833300004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3814,9 +3842,8 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-04 00:00:00</v>
+      <c r="F4" s="2">
+        <v>45295</v>
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" ref="G4">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3826,8 +3853,11 @@
         <f t="array" ref="H4">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2041.344375000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>572.47291666599995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3843,9 +3873,8 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-05 00:00:00</v>
+      <c r="F5" s="2">
+        <v>45296</v>
       </c>
       <c r="G5" t="str" cm="1">
         <f t="array" ref="G5">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3855,8 +3884,11 @@
         <f t="array" ref="H5">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2451.040375000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>565.195833333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3872,9 +3904,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="str" cm="1">
-        <f t="array" ref="F6">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-06 00:00:00</v>
+      <c r="F6" s="2">
+        <v>45297</v>
       </c>
       <c r="G6" t="str" cm="1">
         <f t="array" ref="G6">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3884,8 +3915,11 @@
         <f t="array" ref="H6">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2452.600385416</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>542.29270833300006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3901,9 +3935,8 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="str" cm="1">
-        <f t="array" ref="F7">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-07 00:00:00</v>
+      <c r="F7" s="2">
+        <v>45298</v>
       </c>
       <c r="G7" t="str" cm="1">
         <f t="array" ref="G7">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3913,8 +3946,11 @@
         <f t="array" ref="H7">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2104.941322916</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>544.87499999900001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3930,9 +3966,8 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-08 00:00:00</v>
+      <c r="F8" s="2">
+        <v>45299</v>
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" ref="G8">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3942,8 +3977,11 @@
         <f t="array" ref="H8">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2016.493541666</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>557.74583333300006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3959,9 +3997,8 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="str" cm="1">
-        <f t="array" ref="F9">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-09 00:00:00</v>
+      <c r="F9" s="2">
+        <v>45300</v>
       </c>
       <c r="G9" t="str" cm="1">
         <f t="array" ref="G9">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -3971,8 +4008,11 @@
         <f t="array" ref="H9">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1866.858250000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>541.46041666600001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3988,9 +4028,8 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="str" cm="1">
-        <f t="array" ref="F10">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-10 00:00:00</v>
+      <c r="F10" s="2">
+        <v>45301</v>
       </c>
       <c r="G10" t="str" cm="1">
         <f t="array" ref="G10">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4000,8 +4039,11 @@
         <f t="array" ref="H10">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1443.338795833</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>539.45937499899992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4017,9 +4059,8 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="str" cm="1">
-        <f t="array" ref="F11">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-11 00:00:00</v>
+      <c r="F11" s="2">
+        <v>45302</v>
       </c>
       <c r="G11" t="str" cm="1">
         <f t="array" ref="G11">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4029,8 +4070,11 @@
         <f t="array" ref="H11">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1723.011781250</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>542.84270833300002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -4046,9 +4090,8 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-12 00:00:00</v>
+      <c r="F12" s="2">
+        <v>45303</v>
       </c>
       <c r="G12" t="str" cm="1">
         <f t="array" ref="G12">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4058,8 +4101,11 @@
         <f t="array" ref="H12">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1535.039864583</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>545.22083333299997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4075,9 +4121,8 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="str" cm="1">
-        <f t="array" ref="F13">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-13 00:00:00</v>
+      <c r="F13" s="2">
+        <v>45304</v>
       </c>
       <c r="G13" t="str" cm="1">
         <f t="array" ref="G13">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4087,8 +4132,11 @@
         <f t="array" ref="H13">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1326.524012500</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>522.94999999900006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -4104,9 +4152,8 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="str" cm="1">
-        <f t="array" ref="F14">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-14 00:00:00</v>
+      <c r="F14" s="2">
+        <v>45305</v>
       </c>
       <c r="G14" t="str" cm="1">
         <f t="array" ref="G14">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4116,8 +4163,11 @@
         <f t="array" ref="H14">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2138.076260416</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>517.34374999900001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4133,9 +4183,8 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-15 00:00:00</v>
+      <c r="F15" s="2">
+        <v>45306</v>
       </c>
       <c r="G15" t="str" cm="1">
         <f t="array" ref="G15">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4145,8 +4194,11 @@
         <f t="array" ref="H15">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>3011.681989583</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>518.89687499900003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -4162,9 +4214,8 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-16 00:00:00</v>
+      <c r="F16" s="2">
+        <v>45307</v>
       </c>
       <c r="G16" t="str" cm="1">
         <f t="array" ref="G16">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4174,8 +4225,11 @@
         <f t="array" ref="H16">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2825.954812500</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>551.26770833199998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4191,9 +4245,8 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-17 00:00:00</v>
+      <c r="F17" s="2">
+        <v>45308</v>
       </c>
       <c r="G17" t="str" cm="1">
         <f t="array" ref="G17">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4203,8 +4256,11 @@
         <f t="array" ref="H17">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>3148.297677083</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>574.15104166600008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -4220,9 +4276,8 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="str" cm="1">
-        <f t="array" ref="F18">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-18 00:00:00</v>
+      <c r="F18" s="2">
+        <v>45309</v>
       </c>
       <c r="G18" t="str" cm="1">
         <f t="array" ref="G18">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4232,8 +4287,11 @@
         <f t="array" ref="H18">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2653.483312500</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <v>574.71666666600004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4249,9 +4307,8 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="str" cm="1">
-        <f t="array" ref="F19">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-19 00:00:00</v>
+      <c r="F19" s="2">
+        <v>45310</v>
       </c>
       <c r="G19" t="str" cm="1">
         <f t="array" ref="G19">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4261,8 +4318,11 @@
         <f t="array" ref="H19">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2516.706062500</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <v>565.57187500000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -4278,9 +4338,8 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="str" cm="1">
-        <f t="array" ref="F20">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-20 00:00:00</v>
+      <c r="F20" s="2">
+        <v>45311</v>
       </c>
       <c r="G20" t="str" cm="1">
         <f t="array" ref="G20">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4290,8 +4349,11 @@
         <f t="array" ref="H20">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2973.413114583</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>550.25312499999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -4307,9 +4369,8 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="str" cm="1">
-        <f t="array" ref="F21">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-21 00:00:00</v>
+      <c r="F21" s="2">
+        <v>45312</v>
       </c>
       <c r="G21" t="str" cm="1">
         <f t="array" ref="G21">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4319,8 +4380,11 @@
         <f t="array" ref="H21">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2731.395406250</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <v>555.84166666600004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4336,9 +4400,8 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-22 00:00:00</v>
+      <c r="F22" s="2">
+        <v>45313</v>
       </c>
       <c r="G22" t="str" cm="1">
         <f t="array" ref="G22">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4348,8 +4411,11 @@
         <f t="array" ref="H22">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2538.512677083</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <v>578.555208333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -4365,9 +4431,8 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" t="str" cm="1">
-        <f t="array" ref="F23">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-23 00:00:00</v>
+      <c r="F23" s="2">
+        <v>45314</v>
       </c>
       <c r="G23" t="str" cm="1">
         <f t="array" ref="G23">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4377,8 +4442,11 @@
         <f t="array" ref="H23">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1851.578958333</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>573.67083333200003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -4394,9 +4462,8 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="str" cm="1">
-        <f t="array" ref="F24">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-24 00:00:00</v>
+      <c r="F24" s="2">
+        <v>45315</v>
       </c>
       <c r="G24" t="str" cm="1">
         <f t="array" ref="G24">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4406,8 +4473,11 @@
         <f t="array" ref="H24">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1578.263233333</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <v>580.19791666600008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -4423,9 +4493,8 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" t="str" cm="1">
-        <f t="array" ref="F25">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-25 00:00:00</v>
+      <c r="F25" s="2">
+        <v>45316</v>
       </c>
       <c r="G25" t="str" cm="1">
         <f t="array" ref="G25">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4435,8 +4504,11 @@
         <f t="array" ref="H25">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1372.708786458</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <v>562.56770833299993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4452,9 +4524,8 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="str" cm="1">
-        <f t="array" ref="F26">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-26 00:00:00</v>
+      <c r="F26" s="2">
+        <v>45317</v>
       </c>
       <c r="G26" t="str" cm="1">
         <f t="array" ref="G26">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4464,8 +4535,11 @@
         <f t="array" ref="H26">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1302.432836458</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1">
+        <v>580.24583333300006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -4481,9 +4555,8 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-27 00:00:00</v>
+      <c r="F27" s="2">
+        <v>45318</v>
       </c>
       <c r="G27" t="str" cm="1">
         <f t="array" ref="G27">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4493,8 +4566,11 @@
         <f t="array" ref="H27">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1475.378979166</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1">
+        <v>551.23645833299997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -4510,9 +4586,8 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="str" cm="1">
-        <f t="array" ref="F28">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-28 00:00:00</v>
+      <c r="F28" s="2">
+        <v>45319</v>
       </c>
       <c r="G28" t="str" cm="1">
         <f t="array" ref="G28">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4522,8 +4597,11 @@
         <f t="array" ref="H28">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1421.678760416</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1">
+        <v>560.98645833299997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4539,9 +4617,8 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-29 00:00:00</v>
+      <c r="F29" s="2">
+        <v>45320</v>
       </c>
       <c r="G29" t="str" cm="1">
         <f t="array" ref="G29">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4551,8 +4628,11 @@
         <f t="array" ref="H29">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2194.788229166</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <v>583.86874999899999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4568,9 +4648,8 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="str" cm="1">
-        <f t="array" ref="F30">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-30 00:00:00</v>
+      <c r="F30" s="2">
+        <v>45321</v>
       </c>
       <c r="G30" t="str" cm="1">
         <f t="array" ref="G30">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4580,8 +4659,11 @@
         <f t="array" ref="H30">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2274.781104166</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <v>591.56145833300002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -4597,9 +4679,8 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="str" cm="1">
-        <f t="array" ref="F31">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-01-31 00:00:00</v>
+      <c r="F31" s="2">
+        <v>45322</v>
       </c>
       <c r="G31" t="str" cm="1">
         <f t="array" ref="G31">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4609,8 +4690,11 @@
         <f t="array" ref="H31">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1883.116020833</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <v>582.91041666599995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4626,9 +4710,8 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="str" cm="1">
-        <f t="array" ref="F32">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-01 00:00:00</v>
+      <c r="F32" s="2">
+        <v>45323</v>
       </c>
       <c r="G32" t="str" cm="1">
         <f t="array" ref="G32">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4638,8 +4721,11 @@
         <f t="array" ref="H32">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1760.840270833</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1">
+        <v>576.578125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -4655,9 +4741,8 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="str" cm="1">
-        <f t="array" ref="F33">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-02 00:00:00</v>
+      <c r="F33" s="2">
+        <v>45324</v>
       </c>
       <c r="G33" t="str" cm="1">
         <f t="array" ref="G33">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4667,8 +4752,11 @@
         <f t="array" ref="H33">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1738.530177083</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="1">
+        <v>572.67083333300002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -4684,9 +4772,8 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="str" cm="1">
-        <f t="array" ref="F34">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-03 00:00:00</v>
+      <c r="F34" s="2">
+        <v>45325</v>
       </c>
       <c r="G34" t="str" cm="1">
         <f t="array" ref="G34">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4696,8 +4783,11 @@
         <f t="array" ref="H34">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1873.119916666</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
+        <v>551.69062499899997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -4713,9 +4803,8 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="str" cm="1">
-        <f t="array" ref="F35">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-04 00:00:00</v>
+      <c r="F35" s="2">
+        <v>45326</v>
       </c>
       <c r="G35" t="str" cm="1">
         <f t="array" ref="G35">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4725,8 +4814,11 @@
         <f t="array" ref="H35">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1892.752104166</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
+        <v>545.60416666600008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -4742,9 +4834,8 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="str" cm="1">
-        <f t="array" ref="F36">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-05 00:00:00</v>
+      <c r="F36" s="2">
+        <v>45327</v>
       </c>
       <c r="G36" t="str" cm="1">
         <f t="array" ref="G36">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4754,8 +4845,11 @@
         <f t="array" ref="H36">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2003.474750000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="1">
+        <v>568.62916666599995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -4771,9 +4865,8 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" t="str" cm="1">
-        <f t="array" ref="F37">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-06 00:00:00</v>
+      <c r="F37" s="2">
+        <v>45328</v>
       </c>
       <c r="G37" t="str" cm="1">
         <f t="array" ref="G37">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4783,8 +4876,11 @@
         <f t="array" ref="H37">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2425.098333333</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="1">
+        <v>577.40312499900006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4800,9 +4896,8 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38" t="str" cm="1">
-        <f t="array" ref="F38">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-07 00:00:00</v>
+      <c r="F38" s="2">
+        <v>45329</v>
       </c>
       <c r="G38" t="str" cm="1">
         <f t="array" ref="G38">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4812,8 +4907,11 @@
         <f t="array" ref="H38">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2135.124604166</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="1">
+        <v>575.5072916659999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -4829,9 +4927,8 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="str" cm="1">
-        <f t="array" ref="F39">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-08 00:00:00</v>
+      <c r="F39" s="2">
+        <v>45330</v>
       </c>
       <c r="G39" t="str" cm="1">
         <f t="array" ref="G39">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4841,8 +4938,11 @@
         <f t="array" ref="H39">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1643.320166666</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="1">
+        <v>585.16875000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -4858,9 +4958,8 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="str" cm="1">
-        <f t="array" ref="F40">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-09 00:00:00</v>
+      <c r="F40" s="2">
+        <v>45331</v>
       </c>
       <c r="G40" t="str" cm="1">
         <f t="array" ref="G40">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4870,8 +4969,11 @@
         <f t="array" ref="H40">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1394.957398958</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="1">
+        <v>573.45520833299997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -4887,9 +4989,8 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" t="str" cm="1">
-        <f t="array" ref="F41">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-10 00:00:00</v>
+      <c r="F41" s="2">
+        <v>45332</v>
       </c>
       <c r="G41" t="str" cm="1">
         <f t="array" ref="G41">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4899,8 +5000,11 @@
         <f t="array" ref="H41">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1132.822435416</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="1">
+        <v>549.35729166600004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4916,9 +5020,8 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="F42" t="str" cm="1">
-        <f t="array" ref="F42">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-11 00:00:00</v>
+      <c r="F42" s="2">
+        <v>45333</v>
       </c>
       <c r="G42" t="str" cm="1">
         <f t="array" ref="G42">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4928,8 +5031,11 @@
         <f t="array" ref="H42">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1388.109989583</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="1">
+        <v>539.50624999899992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4945,9 +5051,8 @@
       <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="str" cm="1">
-        <f t="array" ref="F43">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-12 00:00:00</v>
+      <c r="F43" s="2">
+        <v>45334</v>
       </c>
       <c r="G43" t="str" cm="1">
         <f t="array" ref="G43">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4957,8 +5062,11 @@
         <f t="array" ref="H43">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1869.864427083</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="1">
+        <v>559.37708333199998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -4974,9 +5082,8 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="str" cm="1">
-        <f t="array" ref="F44">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-13 00:00:00</v>
+      <c r="F44" s="2">
+        <v>45335</v>
       </c>
       <c r="G44" t="str" cm="1">
         <f t="array" ref="G44">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -4986,8 +5093,11 @@
         <f t="array" ref="H44">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2100.680260416</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="1">
+        <v>578.81249999900001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -5003,9 +5113,8 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="str" cm="1">
-        <f t="array" ref="F45">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-14 00:00:00</v>
+      <c r="F45" s="2">
+        <v>45336</v>
       </c>
       <c r="G45" t="str" cm="1">
         <f t="array" ref="G45">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5015,8 +5124,11 @@
         <f t="array" ref="H45">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2634.183781250</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="1">
+        <v>586.49166666600001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -5032,9 +5144,8 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="F46" t="str" cm="1">
-        <f t="array" ref="F46">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-15 00:00:00</v>
+      <c r="F46" s="2">
+        <v>45337</v>
       </c>
       <c r="G46" t="str" cm="1">
         <f t="array" ref="G46">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5044,8 +5155,11 @@
         <f t="array" ref="H46">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2572.511250000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="1">
+        <v>588.05653409000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5061,9 +5175,8 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47" t="str" cm="1">
-        <f t="array" ref="F47">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-16 00:00:00</v>
+      <c r="F47" s="2">
+        <v>45338</v>
       </c>
       <c r="G47" t="str" cm="1">
         <f t="array" ref="G47">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5073,8 +5186,11 @@
         <f t="array" ref="H47">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2119.318572916</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="1">
+        <v>581.72371323499999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -5090,9 +5206,8 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="F48" t="str" cm="1">
-        <f t="array" ref="F48">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-17 00:00:00</v>
+      <c r="F48" s="2">
+        <v>45339</v>
       </c>
       <c r="G48" t="str" cm="1">
         <f t="array" ref="G48">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5102,8 +5217,11 @@
         <f t="array" ref="H48">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2324.174718750</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="1">
+        <v>559.62395833300002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -5119,9 +5237,8 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F49" t="str" cm="1">
-        <f t="array" ref="F49">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-18 00:00:00</v>
+      <c r="F49" s="2">
+        <v>45340</v>
       </c>
       <c r="G49" t="str" cm="1">
         <f t="array" ref="G49">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5131,8 +5248,11 @@
         <f t="array" ref="H49">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2571.584687500</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="1">
+        <v>557.46354166600008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -5148,9 +5268,8 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="F50" t="str" cm="1">
-        <f t="array" ref="F50">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-19 00:00:00</v>
+      <c r="F50" s="2">
+        <v>45341</v>
       </c>
       <c r="G50" t="str" cm="1">
         <f t="array" ref="G50">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5160,8 +5279,11 @@
         <f t="array" ref="H50">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2574.854718750</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="1">
+        <v>561.71666666600004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -5177,9 +5299,8 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" t="str" cm="1">
-        <f t="array" ref="F51">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-20 00:00:00</v>
+      <c r="F51" s="2">
+        <v>45342</v>
       </c>
       <c r="G51" t="str" cm="1">
         <f t="array" ref="G51">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5189,8 +5310,11 @@
         <f t="array" ref="H51">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2874.483739583</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="1">
+        <v>573.75250850199996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -5206,9 +5330,8 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" t="str" cm="1">
-        <f t="array" ref="F52">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-21 00:00:00</v>
+      <c r="F52" s="2">
+        <v>45343</v>
       </c>
       <c r="G52" t="str" cm="1">
         <f t="array" ref="G52">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5218,8 +5341,11 @@
         <f t="array" ref="H52">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1850.311822916</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="1">
+        <v>578.62916666599995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -5235,9 +5361,8 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" t="str" cm="1">
-        <f t="array" ref="F53">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-22 00:00:00</v>
+      <c r="F53" s="2">
+        <v>45344</v>
       </c>
       <c r="G53" t="str" cm="1">
         <f t="array" ref="G53">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5247,8 +5372,11 @@
         <f t="array" ref="H53">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1810.169593750</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="1">
+        <v>581.24479166600008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -5264,9 +5392,8 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="F54" t="str" cm="1">
-        <f t="array" ref="F54">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-23 00:00:00</v>
+      <c r="F54" s="2">
+        <v>45345</v>
       </c>
       <c r="G54" t="str" cm="1">
         <f t="array" ref="G54">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5276,8 +5403,11 @@
         <f t="array" ref="H54">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1509.341510416</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="1">
+        <v>595.48229166600004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -5293,9 +5423,8 @@
       <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="F55" t="str" cm="1">
-        <f t="array" ref="F55">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-24 00:00:00</v>
+      <c r="F55" s="2">
+        <v>45346</v>
       </c>
       <c r="G55" t="str" cm="1">
         <f t="array" ref="G55">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5305,8 +5434,11 @@
         <f t="array" ref="H55">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2266.186895833</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="1">
+        <v>592.33541666600001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -5322,9 +5454,8 @@
       <c r="E56" t="s">
         <v>9</v>
       </c>
-      <c r="F56" t="str" cm="1">
-        <f t="array" ref="F56">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-25 00:00:00</v>
+      <c r="F56" s="2">
+        <v>45347</v>
       </c>
       <c r="G56" t="str" cm="1">
         <f t="array" ref="G56">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5334,8 +5465,11 @@
         <f t="array" ref="H56">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2394.858993750</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="1">
+        <v>589.73399038399998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -5351,9 +5485,8 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57" t="str" cm="1">
-        <f t="array" ref="F57">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-26 00:00:00</v>
+      <c r="F57" s="2">
+        <v>45348</v>
       </c>
       <c r="G57" t="str" cm="1">
         <f t="array" ref="G57">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5363,8 +5496,11 @@
         <f t="array" ref="H57">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1459.344895833</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="1">
+        <v>596.58124999899997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -5380,9 +5516,8 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" t="str" cm="1">
-        <f t="array" ref="F58">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-27 00:00:00</v>
+      <c r="F58" s="2">
+        <v>45349</v>
       </c>
       <c r="G58" t="str" cm="1">
         <f t="array" ref="G58">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5392,8 +5527,11 @@
         <f t="array" ref="H58">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1358.773004166</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="1">
+        <v>583.62083333300006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -5409,9 +5547,8 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" t="str" cm="1">
-        <f t="array" ref="F59">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-28 00:00:00</v>
+      <c r="F59" s="2">
+        <v>45350</v>
       </c>
       <c r="G59" t="str" cm="1">
         <f t="array" ref="G59">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5421,8 +5558,11 @@
         <f t="array" ref="H59">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1226.539060416</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="1">
+        <v>571.23541666599999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -5438,9 +5578,8 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" t="str" cm="1">
-        <f t="array" ref="F60">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-02-29 00:00:00</v>
+      <c r="F60" s="2">
+        <v>45351</v>
       </c>
       <c r="G60" t="str" cm="1">
         <f t="array" ref="G60">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5450,8 +5589,11 @@
         <f t="array" ref="H60">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2634.211614583</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="1">
+        <v>569.21562500000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -5467,9 +5609,8 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61" t="str" cm="1">
-        <f t="array" ref="F61">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-01 00:00:00</v>
+      <c r="F61" s="2">
+        <v>45352</v>
       </c>
       <c r="G61" t="str" cm="1">
         <f t="array" ref="G61">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5479,8 +5620,11 @@
         <f t="array" ref="H61">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2224.364177083</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="1">
+        <v>571.31249999900001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -5496,9 +5640,8 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="str" cm="1">
-        <f t="array" ref="F62">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-02 00:00:00</v>
+      <c r="F62" s="2">
+        <v>45353</v>
       </c>
       <c r="G62" t="str" cm="1">
         <f t="array" ref="G62">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5508,8 +5651,11 @@
         <f t="array" ref="H62">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1273.909552083</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="1">
+        <v>568.72395833199994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -5525,9 +5671,8 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="str" cm="1">
-        <f t="array" ref="F63">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-03 00:00:00</v>
+      <c r="F63" s="2">
+        <v>45354</v>
       </c>
       <c r="G63" t="str" cm="1">
         <f t="array" ref="G63">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5537,8 +5682,11 @@
         <f t="array" ref="H63">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1190.262134375</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="1">
+        <v>571.39166666599999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -5554,9 +5702,8 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="F64" t="str" cm="1">
-        <f t="array" ref="F64">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-04 00:00:00</v>
+      <c r="F64" s="2">
+        <v>45355</v>
       </c>
       <c r="G64" t="str" cm="1">
         <f t="array" ref="G64">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5566,8 +5713,11 @@
         <f t="array" ref="H64">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1365.918072916</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="1">
+        <v>574.50312499999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -5583,9 +5733,8 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" t="str" cm="1">
-        <f t="array" ref="F65">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-05 00:00:00</v>
+      <c r="F65" s="2">
+        <v>45356</v>
       </c>
       <c r="G65" t="str" cm="1">
         <f t="array" ref="G65">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5595,8 +5744,11 @@
         <f t="array" ref="H65">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1407.074930208</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="1">
+        <v>588.91458333200001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -5612,9 +5764,8 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" t="str" cm="1">
-        <f t="array" ref="F66">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-06 00:00:00</v>
+      <c r="F66" s="2">
+        <v>45357</v>
       </c>
       <c r="G66" t="str" cm="1">
         <f t="array" ref="G66">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5624,8 +5775,11 @@
         <f t="array" ref="H66">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1321.016871875</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="1">
+        <v>576.508333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5641,9 +5795,8 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
-      <c r="F67" t="str" cm="1">
-        <f t="array" ref="F67">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-07 00:00:00</v>
+      <c r="F67" s="2">
+        <v>45358</v>
       </c>
       <c r="G67" t="str" cm="1">
         <f t="array" ref="G67">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5653,8 +5806,11 @@
         <f t="array" ref="H67">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1705.220583333</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="1">
+        <v>575.03333333299997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -5670,9 +5826,8 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" t="str" cm="1">
-        <f t="array" ref="F68">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-08 00:00:00</v>
+      <c r="F68" s="2">
+        <v>45359</v>
       </c>
       <c r="G68" t="str" cm="1">
         <f t="array" ref="G68">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5682,8 +5837,11 @@
         <f t="array" ref="H68">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1780.653343750</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="1">
+        <v>578.93958333199998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -5699,9 +5857,8 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69" t="str" cm="1">
-        <f t="array" ref="F69">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-09 00:00:00</v>
+      <c r="F69" s="2">
+        <v>45360</v>
       </c>
       <c r="G69" t="str" cm="1">
         <f t="array" ref="G69">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5711,8 +5868,11 @@
         <f t="array" ref="H69">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1304.558410416</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="1">
+        <v>583.80312499999991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -5728,9 +5888,8 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" t="str" cm="1">
-        <f t="array" ref="F70">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-10 00:00:00</v>
+      <c r="F70" s="2">
+        <v>45361</v>
       </c>
       <c r="G70" t="str" cm="1">
         <f t="array" ref="G70">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5740,8 +5899,11 @@
         <f t="array" ref="H70">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1639.256000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="1">
+        <v>583.98229166600004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -5757,9 +5919,8 @@
       <c r="E71" t="s">
         <v>12</v>
       </c>
-      <c r="F71" t="str" cm="1">
-        <f t="array" ref="F71">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-11 00:00:00</v>
+      <c r="F71" s="2">
+        <v>45362</v>
       </c>
       <c r="G71" t="str" cm="1">
         <f t="array" ref="G71">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5769,8 +5930,11 @@
         <f t="array" ref="H71">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2163.295375000</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="1">
+        <v>604.01354166600004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -5786,9 +5950,8 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-      <c r="F72" t="str" cm="1">
-        <f t="array" ref="F72">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-12 00:00:00</v>
+      <c r="F72" s="2">
+        <v>45363</v>
       </c>
       <c r="G72" t="str" cm="1">
         <f t="array" ref="G72">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5798,8 +5961,11 @@
         <f t="array" ref="H72">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1516.877708333</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="1">
+        <v>594.33124999899997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -5815,9 +5981,8 @@
       <c r="E73" t="s">
         <v>12</v>
       </c>
-      <c r="F73" t="str" cm="1">
-        <f t="array" ref="F73">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-13 00:00:00</v>
+      <c r="F73" s="2">
+        <v>45364</v>
       </c>
       <c r="G73" t="str" cm="1">
         <f t="array" ref="G73">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5827,8 +5992,11 @@
         <f t="array" ref="H73">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1371.043218750</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="1">
+        <v>566.82187500000009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -5844,9 +6012,8 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-      <c r="F74" t="str" cm="1">
-        <f t="array" ref="F74">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-14 00:00:00</v>
+      <c r="F74" s="2">
+        <v>45365</v>
       </c>
       <c r="G74" t="str" cm="1">
         <f t="array" ref="G74">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5856,8 +6023,11 @@
         <f t="array" ref="H74">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1407.327210416</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" s="1">
+        <v>564.46354166600008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -5873,9 +6043,8 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-      <c r="F75" t="str" cm="1">
-        <f t="array" ref="F75">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-15 00:00:00</v>
+      <c r="F75" s="2">
+        <v>45366</v>
       </c>
       <c r="G75" t="str" cm="1">
         <f t="array" ref="G75">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5885,8 +6054,11 @@
         <f t="array" ref="H75">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1355.006987500</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" s="1">
+        <v>591.29999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -5902,9 +6074,8 @@
       <c r="E76" t="s">
         <v>9</v>
       </c>
-      <c r="F76" t="str" cm="1">
-        <f t="array" ref="F76">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-16 00:00:00</v>
+      <c r="F76" s="2">
+        <v>45367</v>
       </c>
       <c r="G76" t="str" cm="1">
         <f t="array" ref="G76">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5914,8 +6085,11 @@
         <f t="array" ref="H76">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1249.871420833</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" s="1">
+        <v>589.91145833299993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -5931,9 +6105,8 @@
       <c r="E77" t="s">
         <v>12</v>
       </c>
-      <c r="F77" t="str" cm="1">
-        <f t="array" ref="F77">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-17 00:00:00</v>
+      <c r="F77" s="2">
+        <v>45368</v>
       </c>
       <c r="G77" t="str" cm="1">
         <f t="array" ref="G77">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5943,8 +6116,11 @@
         <f t="array" ref="H77">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1179.999762500</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="1">
+        <v>585.64687500000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -5960,9 +6136,8 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
-      <c r="F78" t="str" cm="1">
-        <f t="array" ref="F78">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-18 00:00:00</v>
+      <c r="F78" s="2">
+        <v>45369</v>
       </c>
       <c r="G78" t="str" cm="1">
         <f t="array" ref="G78">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -5972,8 +6147,11 @@
         <f t="array" ref="H78">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2003.676656250</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="1">
+        <v>584.17916666600001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -5989,9 +6167,8 @@
       <c r="E79" t="s">
         <v>12</v>
       </c>
-      <c r="F79" t="str" cm="1">
-        <f t="array" ref="F79">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-19 00:00:00</v>
+      <c r="F79" s="2">
+        <v>45370</v>
       </c>
       <c r="G79" t="str" cm="1">
         <f t="array" ref="G79">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6001,8 +6178,11 @@
         <f t="array" ref="H79">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2210.943958333</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="1">
+        <v>582.82187499899999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -6018,9 +6198,8 @@
       <c r="E80" t="s">
         <v>9</v>
       </c>
-      <c r="F80" t="str" cm="1">
-        <f t="array" ref="F80">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-20 00:00:00</v>
+      <c r="F80" s="2">
+        <v>45371</v>
       </c>
       <c r="G80" t="str" cm="1">
         <f t="array" ref="G80">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6030,8 +6209,11 @@
         <f t="array" ref="H80">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1906.575281250</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="1">
+        <v>568.34166666600004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -6047,9 +6229,8 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F81" t="str" cm="1">
-        <f t="array" ref="F81">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-21 00:00:00</v>
+      <c r="F81" s="2">
+        <v>45372</v>
       </c>
       <c r="G81" t="str" cm="1">
         <f t="array" ref="G81">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6059,8 +6240,11 @@
         <f t="array" ref="H81">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2813.082177083</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" s="1">
+        <v>572.76770833299997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -6076,9 +6260,8 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="F82" t="str" cm="1">
-        <f t="array" ref="F82">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-22 00:00:00</v>
+      <c r="F82" s="2">
+        <v>45373</v>
       </c>
       <c r="G82" t="str" cm="1">
         <f t="array" ref="G82">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6088,8 +6271,11 @@
         <f t="array" ref="H82">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2612.533166666</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" s="1">
+        <v>568.93645833300002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -6105,9 +6291,8 @@
       <c r="E83" t="s">
         <v>12</v>
       </c>
-      <c r="F83" t="str" cm="1">
-        <f t="array" ref="F83">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-23 00:00:00</v>
+      <c r="F83" s="2">
+        <v>45374</v>
       </c>
       <c r="G83" t="str" cm="1">
         <f t="array" ref="G83">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6117,8 +6302,11 @@
         <f t="array" ref="H83">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2211.262489583</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" s="1">
+        <v>542.33749999899999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -6134,9 +6322,8 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="F84" t="str" cm="1">
-        <f t="array" ref="F84">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-24 00:00:00</v>
+      <c r="F84" s="2">
+        <v>45375</v>
       </c>
       <c r="G84" t="str" cm="1">
         <f t="array" ref="G84">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6146,8 +6333,11 @@
         <f t="array" ref="H84">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2261.141583333</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" s="1">
+        <v>544.34687499899997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -6163,9 +6353,8 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="F85" t="str" cm="1">
-        <f t="array" ref="F85">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-25 00:00:00</v>
+      <c r="F85" s="2">
+        <v>45376</v>
       </c>
       <c r="G85" t="str" cm="1">
         <f t="array" ref="G85">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6175,8 +6364,11 @@
         <f t="array" ref="H85">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2060.813510416</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="1">
+        <v>557.48645833299997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -6192,9 +6384,8 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="F86" t="str" cm="1">
-        <f t="array" ref="F86">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-26 00:00:00</v>
+      <c r="F86" s="2">
+        <v>45377</v>
       </c>
       <c r="G86" t="str" cm="1">
         <f t="array" ref="G86">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6204,8 +6395,11 @@
         <f t="array" ref="H86">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1551.326145833</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" s="1">
+        <v>565.17916666600001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -6221,9 +6415,8 @@
       <c r="E87" t="s">
         <v>12</v>
       </c>
-      <c r="F87" t="str" cm="1">
-        <f t="array" ref="F87">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-27 00:00:00</v>
+      <c r="F87" s="2">
+        <v>45378</v>
       </c>
       <c r="G87" t="str" cm="1">
         <f t="array" ref="G87">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6233,8 +6426,11 @@
         <f t="array" ref="H87">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1400.968254166</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" s="1">
+        <v>564.12291666600004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -6250,9 +6446,8 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="F88" t="str" cm="1">
-        <f t="array" ref="F88">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-28 00:00:00</v>
+      <c r="F88" s="2">
+        <v>45379</v>
       </c>
       <c r="G88" t="str" cm="1">
         <f t="array" ref="G88">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6262,8 +6457,11 @@
         <f t="array" ref="H88">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1049.118414583</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="1">
+        <v>561.78124999900001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -6279,9 +6477,8 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="F89" t="str" cm="1">
-        <f t="array" ref="F89">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-29 00:00:00</v>
+      <c r="F89" s="2">
+        <v>45380</v>
       </c>
       <c r="G89" t="str" cm="1">
         <f t="array" ref="G89">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6291,8 +6488,11 @@
         <f t="array" ref="H89">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>0.000000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" s="1">
+        <v>576.85624999900006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -6308,9 +6508,8 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-      <c r="F90" t="str" cm="1">
-        <f t="array" ref="F90">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-30 00:00:00</v>
+      <c r="F90" s="2">
+        <v>45381</v>
       </c>
       <c r="G90" t="str" cm="1">
         <f t="array" ref="G90">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6320,8 +6519,11 @@
         <f t="array" ref="H90">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>0.000000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" s="1">
+        <v>563.44895833200007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -6337,9 +6539,8 @@
       <c r="E91" t="s">
         <v>12</v>
       </c>
-      <c r="F91" t="str" cm="1">
-        <f t="array" ref="F91">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-03-31 00:00:00</v>
+      <c r="F91" s="2">
+        <v>45382</v>
       </c>
       <c r="G91" t="str" cm="1">
         <f t="array" ref="G91">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6349,8 +6550,11 @@
         <f t="array" ref="H91">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>0.000000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" s="1">
+        <v>577.83020833299997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -6366,9 +6570,8 @@
       <c r="E92" t="s">
         <v>9</v>
       </c>
-      <c r="F92" t="str" cm="1">
-        <f t="array" ref="F92">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-01 00:00:00</v>
+      <c r="F92" s="2">
+        <v>45383</v>
       </c>
       <c r="G92" t="str" cm="1">
         <f t="array" ref="G92">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6378,8 +6581,11 @@
         <f t="array" ref="H92">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>70.361396875</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="1">
+        <v>579.40104166599997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -6395,9 +6601,8 @@
       <c r="E93" t="s">
         <v>12</v>
       </c>
-      <c r="F93" t="str" cm="1">
-        <f t="array" ref="F93">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-02 00:00:00</v>
+      <c r="F93" s="2">
+        <v>45384</v>
       </c>
       <c r="G93" t="str" cm="1">
         <f t="array" ref="G93">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6407,8 +6612,11 @@
         <f t="array" ref="H93">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1291.126464583</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="1">
+        <v>580.6791666659999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -6424,9 +6632,8 @@
       <c r="E94" t="s">
         <v>9</v>
       </c>
-      <c r="F94" t="str" cm="1">
-        <f t="array" ref="F94">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-03 00:00:00</v>
+      <c r="F94" s="2">
+        <v>45385</v>
       </c>
       <c r="G94" t="str" cm="1">
         <f t="array" ref="G94">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6436,8 +6643,11 @@
         <f t="array" ref="H94">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1229.857032978</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="1">
+        <v>576.97090053700003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -6453,9 +6663,8 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-      <c r="F95" t="str" cm="1">
-        <f t="array" ref="F95">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-04 00:00:00</v>
+      <c r="F95" s="2">
+        <v>45386</v>
       </c>
       <c r="G95" t="str" cm="1">
         <f t="array" ref="G95">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6465,8 +6674,11 @@
         <f t="array" ref="H95">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1634.224239583</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" s="1">
+        <v>569.76041666600008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -6482,9 +6694,8 @@
       <c r="E96" t="s">
         <v>9</v>
       </c>
-      <c r="F96" t="str" cm="1">
-        <f t="array" ref="F96">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-05 00:00:00</v>
+      <c r="F96" s="2">
+        <v>45387</v>
       </c>
       <c r="G96" t="str" cm="1">
         <f t="array" ref="G96">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6494,8 +6705,11 @@
         <f t="array" ref="H96">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1863.666489795</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" s="1">
+        <v>585.32178996499999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -6511,8 +6725,8 @@
       <c r="E97" t="s">
         <v>12</v>
       </c>
-      <c r="F97" t="s">
-        <v>293</v>
+      <c r="F97" s="2">
+        <v>45388</v>
       </c>
       <c r="G97" cm="1">
         <f t="array" ref="G97">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6522,8 +6736,11 @@
         <f t="array" ref="H97">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1579.284520833</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" s="1">
+        <v>581.711458333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -6539,8 +6756,8 @@
       <c r="E98" t="s">
         <v>9</v>
       </c>
-      <c r="F98" t="s">
-        <v>295</v>
+      <c r="F98" s="2">
+        <v>45389</v>
       </c>
       <c r="G98" cm="1">
         <f t="array" ref="G98">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6550,8 +6767,11 @@
         <f t="array" ref="H98">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1220.504945833</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" s="1">
+        <v>574.49479166600008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -6567,8 +6787,8 @@
       <c r="E99" t="s">
         <v>12</v>
       </c>
-      <c r="F99" t="s">
-        <v>297</v>
+      <c r="F99" s="2">
+        <v>45390</v>
       </c>
       <c r="G99" t="str" cm="1">
         <f t="array" ref="G99">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6578,8 +6798,11 @@
         <f t="array" ref="H99">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1577.754562500</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" s="1">
+        <v>575.24687499900006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -6595,8 +6818,8 @@
       <c r="E100" t="s">
         <v>9</v>
       </c>
-      <c r="F100" t="s">
-        <v>300</v>
+      <c r="F100" s="2">
+        <v>45391</v>
       </c>
       <c r="G100" cm="1">
         <f t="array" ref="G100">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6606,8 +6829,11 @@
         <f t="array" ref="H100">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1437.837291666</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" s="1">
+        <v>560.88020833299993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -6623,8 +6849,8 @@
       <c r="E101" t="s">
         <v>12</v>
       </c>
-      <c r="F101" t="s">
-        <v>302</v>
+      <c r="F101" s="2">
+        <v>45392</v>
       </c>
       <c r="G101" cm="1">
         <f t="array" ref="G101">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6634,8 +6860,11 @@
         <f t="array" ref="H101">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1292.850056923</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" s="1">
+        <v>547.67352563999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -6651,8 +6880,8 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="F102" t="s">
-        <v>304</v>
+      <c r="F102" s="2">
+        <v>45393</v>
       </c>
       <c r="G102" cm="1">
         <f t="array" ref="G102">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6662,8 +6891,11 @@
         <f t="array" ref="H102">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1447.043802083</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" s="1">
+        <v>561.79583333300002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -6679,8 +6911,8 @@
       <c r="E103" t="s">
         <v>12</v>
       </c>
-      <c r="F103" t="s">
-        <v>306</v>
+      <c r="F103" s="2">
+        <v>45394</v>
       </c>
       <c r="G103" cm="1">
         <f t="array" ref="G103">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6690,8 +6922,11 @@
         <f t="array" ref="H103">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1379.318457291</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" s="1">
+        <v>550.05937499900006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -6707,8 +6942,8 @@
       <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="F104" t="s">
-        <v>308</v>
+      <c r="F104" s="2">
+        <v>45395</v>
       </c>
       <c r="G104" cm="1">
         <f t="array" ref="G104">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6718,8 +6953,11 @@
         <f t="array" ref="H104">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1290.405139583</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" s="1">
+        <v>570.92291666599999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -6735,8 +6973,8 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105" t="s">
-        <v>310</v>
+      <c r="F105" s="2">
+        <v>45396</v>
       </c>
       <c r="G105" cm="1">
         <f t="array" ref="G105">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6746,8 +6984,11 @@
         <f t="array" ref="H105">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1277.382481250</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" s="1">
+        <v>571.73958333299993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -6763,8 +7004,8 @@
       <c r="E106" t="s">
         <v>9</v>
       </c>
-      <c r="F106" t="s">
-        <v>312</v>
+      <c r="F106" s="2">
+        <v>45397</v>
       </c>
       <c r="G106" cm="1">
         <f t="array" ref="G106">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6774,8 +7015,11 @@
         <f t="array" ref="H106">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1472.500842708</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" s="1">
+        <v>571.53333333199998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -6791,8 +7035,8 @@
       <c r="E107" t="s">
         <v>12</v>
       </c>
-      <c r="F107" t="s">
-        <v>314</v>
+      <c r="F107" s="2">
+        <v>45398</v>
       </c>
       <c r="G107" cm="1">
         <f t="array" ref="G107">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6802,8 +7046,11 @@
         <f t="array" ref="H107">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1409.142647916</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" s="1">
+        <v>572.18958333299997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -6819,8 +7066,8 @@
       <c r="E108" t="s">
         <v>9</v>
       </c>
-      <c r="F108" t="s">
-        <v>316</v>
+      <c r="F108" s="2">
+        <v>45399</v>
       </c>
       <c r="G108" cm="1">
         <f t="array" ref="G108">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6830,8 +7077,11 @@
         <f t="array" ref="H108">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1303.133617708</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" s="1">
+        <v>571.64270833299997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -6847,8 +7097,8 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-      <c r="F109" t="s">
-        <v>318</v>
+      <c r="F109" s="2">
+        <v>45400</v>
       </c>
       <c r="G109" cm="1">
         <f t="array" ref="G109">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6858,8 +7108,11 @@
         <f t="array" ref="H109">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1169.905563541</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" s="1">
+        <v>578.15833333199998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -6875,8 +7128,8 @@
       <c r="E110" t="s">
         <v>9</v>
       </c>
-      <c r="F110" t="s">
-        <v>320</v>
+      <c r="F110" s="2">
+        <v>45401</v>
       </c>
       <c r="G110" cm="1">
         <f t="array" ref="G110">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6886,8 +7139,11 @@
         <f t="array" ref="H110">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1389.992921875</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="1">
+        <v>608.72187499999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -6903,8 +7159,8 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-      <c r="F111" t="s">
-        <v>322</v>
+      <c r="F111" s="2">
+        <v>45402</v>
       </c>
       <c r="G111" cm="1">
         <f t="array" ref="G111">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6914,8 +7170,11 @@
         <f t="array" ref="H111">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1094.517819791</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" s="1">
+        <v>605.82291666600008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -6931,8 +7190,8 @@
       <c r="E112" t="s">
         <v>9</v>
       </c>
-      <c r="F112" t="s">
-        <v>324</v>
+      <c r="F112" s="2">
+        <v>45403</v>
       </c>
       <c r="G112" cm="1">
         <f t="array" ref="G112">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6942,8 +7201,11 @@
         <f t="array" ref="H112">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1226.791323958</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="1">
+        <v>595.79270833299995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -6959,8 +7221,8 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
-      <c r="F113" t="s">
-        <v>326</v>
+      <c r="F113" s="2">
+        <v>45404</v>
       </c>
       <c r="G113" cm="1">
         <f t="array" ref="G113">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6970,8 +7232,11 @@
         <f t="array" ref="H113">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1463.203982291</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" s="1">
+        <v>590.86666666600001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -6987,8 +7252,8 @@
       <c r="E114" t="s">
         <v>9</v>
       </c>
-      <c r="F114" t="s">
-        <v>328</v>
+      <c r="F114" s="2">
+        <v>45405</v>
       </c>
       <c r="G114" cm="1">
         <f t="array" ref="G114">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -6998,8 +7263,11 @@
         <f t="array" ref="H114">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1387.945990625</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" s="1">
+        <v>593.60312499899999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -7015,9 +7283,8 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F115" t="str" cm="1">
-        <f t="array" ref="F115">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-24 00:00:00</v>
+      <c r="F115" s="2">
+        <v>45406</v>
       </c>
       <c r="G115" t="str" cm="1">
         <f t="array" ref="G115">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7027,8 +7294,11 @@
         <f t="array" ref="H115">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1304.295438541</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" s="1">
+        <v>578.53229166599999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -7044,9 +7314,8 @@
       <c r="E116" t="s">
         <v>9</v>
       </c>
-      <c r="F116" t="str" cm="1">
-        <f t="array" ref="F116">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-25 00:00:00</v>
+      <c r="F116" s="2">
+        <v>45407</v>
       </c>
       <c r="G116" t="str" cm="1">
         <f t="array" ref="G116">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7056,8 +7325,11 @@
         <f t="array" ref="H116">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1731.080625000</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" s="1">
+        <v>578.65937499899997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -7073,9 +7345,8 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F117" t="str" cm="1">
-        <f t="array" ref="F117">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-26 00:00:00</v>
+      <c r="F117" s="2">
+        <v>45408</v>
       </c>
       <c r="G117" t="str" cm="1">
         <f t="array" ref="G117">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7085,8 +7356,11 @@
         <f t="array" ref="H117">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1661.825441666</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" s="1">
+        <v>577.83229166599995</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -7102,9 +7376,8 @@
       <c r="E118" t="s">
         <v>9</v>
       </c>
-      <c r="F118" t="str" cm="1">
-        <f t="array" ref="F118">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-27 00:00:00</v>
+      <c r="F118" s="2">
+        <v>45409</v>
       </c>
       <c r="G118" t="str" cm="1">
         <f t="array" ref="G118">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7114,8 +7387,11 @@
         <f t="array" ref="H118">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1150.397620833</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" s="1">
+        <v>573.008333333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -7131,9 +7407,8 @@
       <c r="E119" t="s">
         <v>12</v>
       </c>
-      <c r="F119" t="str" cm="1">
-        <f t="array" ref="F119">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-28 00:00:00</v>
+      <c r="F119" s="2">
+        <v>45410</v>
       </c>
       <c r="G119" t="str" cm="1">
         <f t="array" ref="G119">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7143,8 +7418,11 @@
         <f t="array" ref="H119">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1166.625394791</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" s="1">
+        <v>577.60729166600004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -7160,9 +7438,8 @@
       <c r="E120" t="s">
         <v>9</v>
       </c>
-      <c r="F120" t="str" cm="1">
-        <f t="array" ref="F120">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-29 00:00:00</v>
+      <c r="F120" s="2">
+        <v>45411</v>
       </c>
       <c r="G120" t="str" cm="1">
         <f t="array" ref="G120">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7172,8 +7449,11 @@
         <f t="array" ref="H120">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1296.638440625</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" s="1">
+        <v>591.78749999899992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -7189,9 +7469,8 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="F121" t="str" cm="1">
-        <f t="array" ref="F121">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-04-30 00:00:00</v>
+      <c r="F121" s="2">
+        <v>45412</v>
       </c>
       <c r="G121" t="str" cm="1">
         <f t="array" ref="G121">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7201,8 +7480,11 @@
         <f t="array" ref="H121">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1374.325430208</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" s="1">
+        <v>588.78645833200005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -7218,9 +7500,8 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="F122" t="str" cm="1">
-        <f t="array" ref="F122">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-01 00:00:00</v>
+      <c r="F122" s="2">
+        <v>45413</v>
       </c>
       <c r="G122" t="str" cm="1">
         <f t="array" ref="G122">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7230,8 +7511,11 @@
         <f t="array" ref="H122">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1267.993660416</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" s="1">
+        <v>588.05624999899999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -7247,9 +7531,8 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-      <c r="F123" t="str" cm="1">
-        <f t="array" ref="F123">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-02 00:00:00</v>
+      <c r="F123" s="2">
+        <v>45414</v>
       </c>
       <c r="G123" t="str" cm="1">
         <f t="array" ref="G123">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7259,8 +7542,11 @@
         <f t="array" ref="H123">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1390.243020833</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" s="1">
+        <v>574.63020833300004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -7276,9 +7562,8 @@
       <c r="E124" t="s">
         <v>9</v>
       </c>
-      <c r="F124" t="str" cm="1">
-        <f t="array" ref="F124">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-03 00:00:00</v>
+      <c r="F124" s="2">
+        <v>45415</v>
       </c>
       <c r="G124" t="str" cm="1">
         <f t="array" ref="G124">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7288,8 +7573,11 @@
         <f t="array" ref="H124">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1309.809748958</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" s="1">
+        <v>600.47916666600008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -7305,9 +7593,8 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125" t="str" cm="1">
-        <f t="array" ref="F125">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-04 00:00:00</v>
+      <c r="F125" s="2">
+        <v>45416</v>
       </c>
       <c r="G125" t="str" cm="1">
         <f t="array" ref="G125">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7317,8 +7604,11 @@
         <f t="array" ref="H125">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1206.386964583</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" s="1">
+        <v>593.24479166599997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -7334,9 +7624,8 @@
       <c r="E126" t="s">
         <v>9</v>
       </c>
-      <c r="F126" t="str" cm="1">
-        <f t="array" ref="F126">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-05 00:00:00</v>
+      <c r="F126" s="2">
+        <v>45417</v>
       </c>
       <c r="G126" t="str" cm="1">
         <f t="array" ref="G126">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7346,8 +7635,11 @@
         <f t="array" ref="H126">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1193.364584375</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" s="1">
+        <v>590.57187499899999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -7363,9 +7655,8 @@
       <c r="E127" t="s">
         <v>12</v>
       </c>
-      <c r="F127" t="str" cm="1">
-        <f t="array" ref="F127">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-06 00:00:00</v>
+      <c r="F127" s="2">
+        <v>45418</v>
       </c>
       <c r="G127" t="str" cm="1">
         <f t="array" ref="G127">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7375,8 +7666,11 @@
         <f t="array" ref="H127">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1400.629479166</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" s="1">
+        <v>594.71041666600001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -7392,9 +7686,8 @@
       <c r="E128" t="s">
         <v>9</v>
       </c>
-      <c r="F128" t="str" cm="1">
-        <f t="array" ref="F128">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-07 00:00:00</v>
+      <c r="F128" s="2">
+        <v>45419</v>
       </c>
       <c r="G128" t="str" cm="1">
         <f t="array" ref="G128">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7404,8 +7697,11 @@
         <f t="array" ref="H128">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1410.123886458</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" s="1">
+        <v>590.98645833299997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -7421,9 +7717,8 @@
       <c r="E129" t="s">
         <v>12</v>
       </c>
-      <c r="F129" t="str" cm="1">
-        <f t="array" ref="F129">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-08 00:00:00</v>
+      <c r="F129" s="2">
+        <v>45420</v>
       </c>
       <c r="G129" t="str" cm="1">
         <f t="array" ref="G129">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7433,8 +7728,11 @@
         <f t="array" ref="H129">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1249.752703125</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" s="1">
+        <v>580.90208333300006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -7450,9 +7748,8 @@
       <c r="E130" t="s">
         <v>9</v>
       </c>
-      <c r="F130" t="str" cm="1">
-        <f t="array" ref="F130">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-09 00:00:00</v>
+      <c r="F130" s="2">
+        <v>45421</v>
       </c>
       <c r="G130" t="str" cm="1">
         <f t="array" ref="G130">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7462,8 +7759,11 @@
         <f t="array" ref="H130">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1387.208292708</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" s="1">
+        <v>594.11874999899999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -7479,9 +7779,8 @@
       <c r="E131" t="s">
         <v>12</v>
       </c>
-      <c r="F131" t="str" cm="1">
-        <f t="array" ref="F131">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-10 00:00:00</v>
+      <c r="F131" s="2">
+        <v>45422</v>
       </c>
       <c r="G131" t="str" cm="1">
         <f t="array" ref="G131">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7491,8 +7790,11 @@
         <f t="array" ref="H131">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1325.330116666</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" s="1">
+        <v>600.67499999899997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -7508,9 +7810,8 @@
       <c r="E132" t="s">
         <v>9</v>
       </c>
-      <c r="F132" t="str" cm="1">
-        <f t="array" ref="F132">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-11 00:00:00</v>
+      <c r="F132" s="2">
+        <v>45423</v>
       </c>
       <c r="G132" t="str" cm="1">
         <f t="array" ref="G132">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7520,8 +7821,11 @@
         <f t="array" ref="H132">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1174.578620833</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" s="1">
+        <v>593.102083333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -7537,9 +7841,8 @@
       <c r="E133" t="s">
         <v>12</v>
       </c>
-      <c r="F133" t="str" cm="1">
-        <f t="array" ref="F133">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-12 00:00:00</v>
+      <c r="F133" s="2">
+        <v>45424</v>
       </c>
       <c r="G133" t="str" cm="1">
         <f t="array" ref="G133">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7549,8 +7852,11 @@
         <f t="array" ref="H133">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1211.112952083</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" s="1">
+        <v>584.35625000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -7566,9 +7872,8 @@
       <c r="E134" t="s">
         <v>9</v>
       </c>
-      <c r="F134" t="str" cm="1">
-        <f t="array" ref="F134">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-13 00:00:00</v>
+      <c r="F134" s="2">
+        <v>45425</v>
       </c>
       <c r="G134" t="str" cm="1">
         <f t="array" ref="G134">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7578,8 +7883,11 @@
         <f t="array" ref="H134">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1377.313389583</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" s="1">
+        <v>551.352083333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -7595,9 +7903,8 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-      <c r="F135" t="str" cm="1">
-        <f t="array" ref="F135">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-14 00:00:00</v>
+      <c r="F135" s="2">
+        <v>45426</v>
       </c>
       <c r="G135" t="str" cm="1">
         <f t="array" ref="G135">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7607,8 +7914,11 @@
         <f t="array" ref="H135">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1389.806379166</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" s="1">
+        <v>530.87812499899997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -7624,9 +7934,8 @@
       <c r="E136" t="s">
         <v>9</v>
       </c>
-      <c r="F136" t="str" cm="1">
-        <f t="array" ref="F136">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-15 00:00:00</v>
+      <c r="F136" s="2">
+        <v>45427</v>
       </c>
       <c r="G136" t="str" cm="1">
         <f t="array" ref="G136">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7636,8 +7945,11 @@
         <f t="array" ref="H136">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1319.680321875</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" s="1">
+        <v>534.41770833300006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -7653,9 +7965,8 @@
       <c r="E137" t="s">
         <v>12</v>
       </c>
-      <c r="F137" t="str" cm="1">
-        <f t="array" ref="F137">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-16 00:00:00</v>
+      <c r="F137" s="2">
+        <v>45428</v>
       </c>
       <c r="G137" t="str" cm="1">
         <f t="array" ref="G137">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7665,8 +7976,11 @@
         <f t="array" ref="H137">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1379.299732291</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" s="1">
+        <v>537.42083333300002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -7682,9 +7996,8 @@
       <c r="E138" t="s">
         <v>9</v>
       </c>
-      <c r="F138" t="str" cm="1">
-        <f t="array" ref="F138">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-17 00:00:00</v>
+      <c r="F138" s="2">
+        <v>45429</v>
       </c>
       <c r="G138" t="str" cm="1">
         <f t="array" ref="G138">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7694,8 +8007,11 @@
         <f t="array" ref="H138">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1308.432692708</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" s="1">
+        <v>540.61354166599995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -7711,9 +8027,8 @@
       <c r="E139" t="s">
         <v>12</v>
       </c>
-      <c r="F139" t="str" cm="1">
-        <f t="array" ref="F139">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-18 00:00:00</v>
+      <c r="F139" s="2">
+        <v>45430</v>
       </c>
       <c r="G139" t="str" cm="1">
         <f t="array" ref="G139">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7723,8 +8038,11 @@
         <f t="array" ref="H139">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1160.781319791</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" s="1">
+        <v>543.12291666600004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -7740,9 +8058,8 @@
       <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="F140" t="str" cm="1">
-        <f t="array" ref="F140">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-19 00:00:00</v>
+      <c r="F140" s="2">
+        <v>45431</v>
       </c>
       <c r="G140" t="str" cm="1">
         <f t="array" ref="G140">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7752,8 +8069,11 @@
         <f t="array" ref="H140">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1126.880621875</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" s="1">
+        <v>553.55729166599997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -7769,9 +8089,8 @@
       <c r="E141" t="s">
         <v>12</v>
       </c>
-      <c r="F141" t="str" cm="1">
-        <f t="array" ref="F141">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-20 00:00:00</v>
+      <c r="F141" s="2">
+        <v>45432</v>
       </c>
       <c r="G141" t="str" cm="1">
         <f t="array" ref="G141">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7781,8 +8100,11 @@
         <f t="array" ref="H141">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1255.082887500</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" s="1">
+        <v>572.84374999900001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -7798,9 +8120,8 @@
       <c r="E142" t="s">
         <v>9</v>
       </c>
-      <c r="F142" t="str" cm="1">
-        <f t="array" ref="F142">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-21 00:00:00</v>
+      <c r="F142" s="2">
+        <v>45433</v>
       </c>
       <c r="G142" t="str" cm="1">
         <f t="array" ref="G142">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7810,8 +8131,11 @@
         <f t="array" ref="H142">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1291.591985416</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" s="1">
+        <v>590.25416666599995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -7827,9 +8151,8 @@
       <c r="E143" t="s">
         <v>12</v>
       </c>
-      <c r="F143" t="str" cm="1">
-        <f t="array" ref="F143">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-22 00:00:00</v>
+      <c r="F143" s="2">
+        <v>45434</v>
       </c>
       <c r="G143" t="str" cm="1">
         <f t="array" ref="G143">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7839,8 +8162,11 @@
         <f t="array" ref="H143">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1177.993901041</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" s="1">
+        <v>580.68020833200001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -7856,9 +8182,8 @@
       <c r="E144" t="s">
         <v>9</v>
       </c>
-      <c r="F144" t="str" cm="1">
-        <f t="array" ref="F144">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-23 00:00:00</v>
+      <c r="F144" s="2">
+        <v>45435</v>
       </c>
       <c r="G144" t="str" cm="1">
         <f t="array" ref="G144">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7868,8 +8193,11 @@
         <f t="array" ref="H144">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1299.228958947</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" s="1">
+        <v>571.85625000000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -7885,9 +8213,8 @@
       <c r="E145" t="s">
         <v>12</v>
       </c>
-      <c r="F145" t="str" cm="1">
-        <f t="array" ref="F145">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-24 00:00:00</v>
+      <c r="F145" s="2">
+        <v>45436</v>
       </c>
       <c r="G145" t="str" cm="1">
         <f t="array" ref="G145">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7897,8 +8224,11 @@
         <f t="array" ref="H145">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1153.354090625</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" s="1">
+        <v>587.19791666599997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -7914,9 +8244,8 @@
       <c r="E146" t="s">
         <v>9</v>
       </c>
-      <c r="F146" t="str" cm="1">
-        <f t="array" ref="F146">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-25 00:00:00</v>
+      <c r="F146" s="2">
+        <v>45437</v>
       </c>
       <c r="G146" t="str" cm="1">
         <f t="array" ref="G146">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7926,8 +8255,11 @@
         <f t="array" ref="H146">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1021.180448958</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" s="1">
+        <v>575.73020833299995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -7943,9 +8275,8 @@
       <c r="E147" t="s">
         <v>12</v>
       </c>
-      <c r="F147" t="str" cm="1">
-        <f t="array" ref="F147">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-26 00:00:00</v>
+      <c r="F147" s="2">
+        <v>45438</v>
       </c>
       <c r="G147" t="str" cm="1">
         <f t="array" ref="G147">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7955,8 +8286,11 @@
         <f t="array" ref="H147">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1088.666396875</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" s="1">
+        <v>550.76145833300006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -7972,9 +8306,8 @@
       <c r="E148" t="s">
         <v>9</v>
       </c>
-      <c r="F148" t="str" cm="1">
-        <f t="array" ref="F148">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-27 00:00:00</v>
+      <c r="F148" s="2">
+        <v>45439</v>
       </c>
       <c r="G148" t="str" cm="1">
         <f t="array" ref="G148">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -7984,8 +8317,11 @@
         <f t="array" ref="H148">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1156.670444791</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" s="1">
+        <v>522.77708333299995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -8001,9 +8337,8 @@
       <c r="E149" t="s">
         <v>12</v>
       </c>
-      <c r="F149" t="str" cm="1">
-        <f t="array" ref="F149">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-28 00:00:00</v>
+      <c r="F149" s="2">
+        <v>45440</v>
       </c>
       <c r="G149" t="str" cm="1">
         <f t="array" ref="G149">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8013,8 +8348,11 @@
         <f t="array" ref="H149">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>458.130076041</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" s="1">
+        <v>532.44895833300006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -8030,9 +8368,8 @@
       <c r="E150" t="s">
         <v>9</v>
       </c>
-      <c r="F150" t="str" cm="1">
-        <f t="array" ref="F150">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-29 00:00:00</v>
+      <c r="F150" s="2">
+        <v>45441</v>
       </c>
       <c r="G150" t="str" cm="1">
         <f t="array" ref="G150">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8042,8 +8379,11 @@
         <f t="array" ref="H150">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>0.000000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" s="1">
+        <v>534.52708333300006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -8059,9 +8399,8 @@
       <c r="E151" t="s">
         <v>12</v>
       </c>
-      <c r="F151" t="str" cm="1">
-        <f t="array" ref="F151">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-30 00:00:00</v>
+      <c r="F151" s="2">
+        <v>45442</v>
       </c>
       <c r="G151" t="str" cm="1">
         <f t="array" ref="G151">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8071,8 +8410,11 @@
         <f t="array" ref="H151">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>0.000000000</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" s="1">
+        <v>548.83541666600001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -8088,9 +8430,8 @@
       <c r="E152" t="s">
         <v>9</v>
       </c>
-      <c r="F152" t="str" cm="1">
-        <f t="array" ref="F152">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-05-31 00:00:00</v>
+      <c r="F152" s="2">
+        <v>45443</v>
       </c>
       <c r="G152" t="str" cm="1">
         <f t="array" ref="G152">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8100,8 +8441,11 @@
         <f t="array" ref="H152">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1427.319073958</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" s="1">
+        <v>561.54999999899997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -8117,9 +8461,8 @@
       <c r="E153" t="s">
         <v>12</v>
       </c>
-      <c r="F153" t="str" cm="1">
-        <f t="array" ref="F153">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-01 00:00:00</v>
+      <c r="F153" s="2">
+        <v>45444</v>
       </c>
       <c r="G153" t="str" cm="1">
         <f t="array" ref="G153">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8129,8 +8472,11 @@
         <f t="array" ref="H153">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1198.380476041</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" s="1">
+        <v>550.01041666599997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -8146,9 +8492,8 @@
       <c r="E154" t="s">
         <v>9</v>
       </c>
-      <c r="F154" t="str" cm="1">
-        <f t="array" ref="F154">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-02 00:00:00</v>
+      <c r="F154" s="2">
+        <v>45445</v>
       </c>
       <c r="G154" t="str" cm="1">
         <f t="array" ref="G154">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8158,8 +8503,11 @@
         <f t="array" ref="H154">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1165.580034375</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" s="1">
+        <v>550.398958333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -8175,9 +8523,8 @@
       <c r="E155" t="s">
         <v>12</v>
       </c>
-      <c r="F155" t="str" cm="1">
-        <f t="array" ref="F155">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-03 00:00:00</v>
+      <c r="F155" s="2">
+        <v>45446</v>
       </c>
       <c r="G155" t="str" cm="1">
         <f t="array" ref="G155">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8187,8 +8534,11 @@
         <f t="array" ref="H155">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1215.065816666</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" s="1">
+        <v>569.04687499900001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -8204,9 +8554,8 @@
       <c r="E156" t="s">
         <v>9</v>
       </c>
-      <c r="F156" t="str" cm="1">
-        <f t="array" ref="F156">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-04 00:00:00</v>
+      <c r="F156" s="2">
+        <v>45447</v>
       </c>
       <c r="G156" t="str" cm="1">
         <f t="array" ref="G156">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8216,8 +8565,11 @@
         <f t="array" ref="H156">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1129.856691666</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" s="1">
+        <v>568.07395833200007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -8233,9 +8585,8 @@
       <c r="E157" t="s">
         <v>12</v>
       </c>
-      <c r="F157" t="str" cm="1">
-        <f t="array" ref="F157">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-05 00:00:00</v>
+      <c r="F157" s="2">
+        <v>45448</v>
       </c>
       <c r="G157" t="str" cm="1">
         <f t="array" ref="G157">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8245,8 +8596,11 @@
         <f t="array" ref="H157">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1081.488327083</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" s="1">
+        <v>570.36458333200005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -8262,9 +8616,8 @@
       <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="F158" t="str" cm="1">
-        <f t="array" ref="F158">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-06 00:00:00</v>
+      <c r="F158" s="2">
+        <v>45449</v>
       </c>
       <c r="G158" t="str" cm="1">
         <f t="array" ref="G158">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8274,8 +8627,11 @@
         <f t="array" ref="H158">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1142.099107291</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" s="1">
+        <v>589.71979166599999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -8291,9 +8647,8 @@
       <c r="E159" t="s">
         <v>12</v>
       </c>
-      <c r="F159" t="str" cm="1">
-        <f t="array" ref="F159">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-07 00:00:00</v>
+      <c r="F159" s="2">
+        <v>45450</v>
       </c>
       <c r="G159" t="str" cm="1">
         <f t="array" ref="G159">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8303,8 +8658,11 @@
         <f t="array" ref="H159">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1233.524612500</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" s="1">
+        <v>599.94895833200007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -8320,9 +8678,8 @@
       <c r="E160" t="s">
         <v>9</v>
       </c>
-      <c r="F160" t="str" cm="1">
-        <f t="array" ref="F160">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-08 00:00:00</v>
+      <c r="F160" s="2">
+        <v>45451</v>
       </c>
       <c r="G160" t="str" cm="1">
         <f t="array" ref="G160">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8332,8 +8689,11 @@
         <f t="array" ref="H160">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1127.536013541</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" s="1">
+        <v>576.39479166599995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -8349,9 +8709,8 @@
       <c r="E161" t="s">
         <v>12</v>
       </c>
-      <c r="F161" t="str" cm="1">
-        <f t="array" ref="F161">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-09 00:00:00</v>
+      <c r="F161" s="2">
+        <v>45452</v>
       </c>
       <c r="G161" t="str" cm="1">
         <f t="array" ref="G161">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8361,8 +8720,11 @@
         <f t="array" ref="H161">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1096.339934375</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" s="1">
+        <v>560.37083333199996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -8378,9 +8740,8 @@
       <c r="E162" t="s">
         <v>9</v>
       </c>
-      <c r="F162" t="str" cm="1">
-        <f t="array" ref="F162">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-10 00:00:00</v>
+      <c r="F162" s="2">
+        <v>45453</v>
       </c>
       <c r="G162" t="str" cm="1">
         <f t="array" ref="G162">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8390,8 +8751,11 @@
         <f t="array" ref="H162">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1249.565006250</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" s="1">
+        <v>588.39270833299997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -8407,9 +8771,8 @@
       <c r="E163" t="s">
         <v>12</v>
       </c>
-      <c r="F163" t="str" cm="1">
-        <f t="array" ref="F163">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-11 00:00:00</v>
+      <c r="F163" s="2">
+        <v>45454</v>
       </c>
       <c r="G163" t="str" cm="1">
         <f t="array" ref="G163">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8419,8 +8782,11 @@
         <f t="array" ref="H163">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1201.281969791</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" s="1">
+        <v>590.90729166599999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -8436,9 +8802,8 @@
       <c r="E164" t="s">
         <v>9</v>
       </c>
-      <c r="F164" t="str" cm="1">
-        <f t="array" ref="F164">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-12 00:00:00</v>
+      <c r="F164" s="2">
+        <v>45455</v>
       </c>
       <c r="G164" t="str" cm="1">
         <f t="array" ref="G164">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8448,8 +8813,11 @@
         <f t="array" ref="H164">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1192.412769791</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" s="1">
+        <v>571.18229166599997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -8465,9 +8833,8 @@
       <c r="E165" t="s">
         <v>12</v>
       </c>
-      <c r="F165" t="str" cm="1">
-        <f t="array" ref="F165">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-13 00:00:00</v>
+      <c r="F165" s="2">
+        <v>45456</v>
       </c>
       <c r="G165" t="str" cm="1">
         <f t="array" ref="G165">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8477,8 +8844,11 @@
         <f t="array" ref="H165">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1113.784934375</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" s="1">
+        <v>561.88437499899999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -8494,9 +8864,8 @@
       <c r="E166" t="s">
         <v>9</v>
       </c>
-      <c r="F166" t="str" cm="1">
-        <f t="array" ref="F166">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-14 00:00:00</v>
+      <c r="F166" s="2">
+        <v>45457</v>
       </c>
       <c r="G166" t="str" cm="1">
         <f t="array" ref="G166">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8506,8 +8875,11 @@
         <f t="array" ref="H166">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1055.995223958</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" s="1">
+        <v>564.20208333300002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -8523,9 +8895,8 @@
       <c r="E167" t="s">
         <v>12</v>
       </c>
-      <c r="F167" t="str" cm="1">
-        <f t="array" ref="F167">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-15 00:00:00</v>
+      <c r="F167" s="2">
+        <v>45458</v>
       </c>
       <c r="G167" t="str" cm="1">
         <f t="array" ref="G167">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8535,8 +8906,11 @@
         <f t="array" ref="H167">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1031.261872916</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" s="1">
+        <v>560.180208333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -8552,9 +8926,8 @@
       <c r="E168" t="s">
         <v>9</v>
       </c>
-      <c r="F168" t="str" cm="1">
-        <f t="array" ref="F168">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-16 00:00:00</v>
+      <c r="F168" s="2">
+        <v>45459</v>
       </c>
       <c r="G168" t="str" cm="1">
         <f t="array" ref="G168">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8564,8 +8937,11 @@
         <f t="array" ref="H168">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>996.727626041</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" s="1">
+        <v>566.45000000000005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -8581,9 +8957,8 @@
       <c r="E169" t="s">
         <v>12</v>
       </c>
-      <c r="F169" t="str" cm="1">
-        <f t="array" ref="F169">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-17 00:00:00</v>
+      <c r="F169" s="2">
+        <v>45460</v>
       </c>
       <c r="G169" t="str" cm="1">
         <f t="array" ref="G169">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8593,8 +8968,11 @@
         <f t="array" ref="H169">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1052.135171875</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" s="1">
+        <v>571.05833333200007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -8610,9 +8988,8 @@
       <c r="E170" t="s">
         <v>9</v>
       </c>
-      <c r="F170" t="str" cm="1">
-        <f t="array" ref="F170">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-18 00:00:00</v>
+      <c r="F170" s="2">
+        <v>45461</v>
       </c>
       <c r="G170" t="str" cm="1">
         <f t="array" ref="G170">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8622,8 +8999,11 @@
         <f t="array" ref="H170">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1021.462425000</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" s="1">
+        <v>572.39374999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -8639,9 +9019,8 @@
       <c r="E171" t="s">
         <v>12</v>
       </c>
-      <c r="F171" t="str" cm="1">
-        <f t="array" ref="F171">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-19 00:00:00</v>
+      <c r="F171" s="2">
+        <v>45462</v>
       </c>
       <c r="G171" t="str" cm="1">
         <f t="array" ref="G171">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8651,8 +9030,11 @@
         <f t="array" ref="H171">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>868.948065625</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" s="1">
+        <v>557.07916666599999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -8668,9 +9050,8 @@
       <c r="E172" t="s">
         <v>9</v>
       </c>
-      <c r="F172" t="str" cm="1">
-        <f t="array" ref="F172">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-20 00:00:00</v>
+      <c r="F172" s="2">
+        <v>45463</v>
       </c>
       <c r="G172" t="str" cm="1">
         <f t="array" ref="G172">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8680,8 +9061,11 @@
         <f t="array" ref="H172">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>964.074650000</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" s="1">
+        <v>579.664583333</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -8697,9 +9081,8 @@
       <c r="E173" t="s">
         <v>12</v>
       </c>
-      <c r="F173" t="str" cm="1">
-        <f t="array" ref="F173">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-21 00:00:00</v>
+      <c r="F173" s="2">
+        <v>45464</v>
       </c>
       <c r="G173" t="str" cm="1">
         <f t="array" ref="G173">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8709,8 +9092,11 @@
         <f t="array" ref="H173">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>971.308657291</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" s="1">
+        <v>575.19791666600008</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -8726,9 +9112,8 @@
       <c r="E174" t="s">
         <v>9</v>
       </c>
-      <c r="F174" t="str" cm="1">
-        <f t="array" ref="F174">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-22 00:00:00</v>
+      <c r="F174" s="2">
+        <v>45465</v>
       </c>
       <c r="G174" t="str" cm="1">
         <f t="array" ref="G174">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8738,8 +9123,11 @@
         <f t="array" ref="H174">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>906.666756250</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" s="1">
+        <v>544.67499999999995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -8755,9 +9143,8 @@
       <c r="E175" t="s">
         <v>12</v>
       </c>
-      <c r="F175" t="str" cm="1">
-        <f t="array" ref="F175">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-23 00:00:00</v>
+      <c r="F175" s="2">
+        <v>45466</v>
       </c>
       <c r="G175" t="str" cm="1">
         <f t="array" ref="G175">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8767,8 +9154,11 @@
         <f t="array" ref="H175">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>897.402298958</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" s="1">
+        <v>549.36562499900003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -8784,9 +9174,8 @@
       <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="F176" t="str" cm="1">
-        <f t="array" ref="F176">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-24 00:00:00</v>
+      <c r="F176" s="2">
+        <v>45467</v>
       </c>
       <c r="G176" t="str" cm="1">
         <f t="array" ref="G176">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8796,8 +9185,11 @@
         <f t="array" ref="H176">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1088.549527083</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" s="1">
+        <v>554.96875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -8813,9 +9205,8 @@
       <c r="E177" t="s">
         <v>12</v>
       </c>
-      <c r="F177" t="str" cm="1">
-        <f t="array" ref="F177">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-25 00:00:00</v>
+      <c r="F177" s="2">
+        <v>45468</v>
       </c>
       <c r="G177" t="str" cm="1">
         <f t="array" ref="G177">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8825,8 +9216,11 @@
         <f t="array" ref="H177">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1084.535866666</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" s="1">
+        <v>550.80833333299995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -8842,9 +9236,8 @@
       <c r="E178" t="s">
         <v>9</v>
       </c>
-      <c r="F178" t="str" cm="1">
-        <f t="array" ref="F178">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-26 00:00:00</v>
+      <c r="F178" s="2">
+        <v>45469</v>
       </c>
       <c r="G178" t="str" cm="1">
         <f t="array" ref="G178">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8854,8 +9247,11 @@
         <f t="array" ref="H178">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1011.200181250</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" s="1">
+        <v>561.07604166600004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -8871,9 +9267,8 @@
       <c r="E179" t="s">
         <v>12</v>
       </c>
-      <c r="F179" t="str" cm="1">
-        <f t="array" ref="F179">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-27 00:00:00</v>
+      <c r="F179" s="2">
+        <v>45470</v>
       </c>
       <c r="G179" t="str" cm="1">
         <f t="array" ref="G179">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8883,8 +9278,11 @@
         <f t="array" ref="H179">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1176.624230208</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" s="1">
+        <v>571.50647163000008</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -8900,9 +9298,8 @@
       <c r="E180" t="s">
         <v>9</v>
       </c>
-      <c r="F180" t="str" cm="1">
-        <f t="array" ref="F180">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-28 00:00:00</v>
+      <c r="F180" s="2">
+        <v>45471</v>
       </c>
       <c r="G180" t="str" cm="1">
         <f t="array" ref="G180">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8912,8 +9309,11 @@
         <f t="array" ref="H180">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1166.242210416</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" s="1">
+        <v>583.84895833299993</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -8929,9 +9329,8 @@
       <c r="E181" t="s">
         <v>12</v>
       </c>
-      <c r="F181" t="str" cm="1">
-        <f t="array" ref="F181">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-29 00:00:00</v>
+      <c r="F181" s="2">
+        <v>45472</v>
       </c>
       <c r="G181" t="str" cm="1">
         <f t="array" ref="G181">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8941,8 +9340,11 @@
         <f t="array" ref="H181">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1084.183555208</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" s="1">
+        <v>574.26666666599999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -8958,9 +9360,8 @@
       <c r="E182" t="s">
         <v>9</v>
       </c>
-      <c r="F182" t="str" cm="1">
-        <f t="array" ref="F182">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-06-30 00:00:00</v>
+      <c r="F182" s="2">
+        <v>45473</v>
       </c>
       <c r="G182" t="str" cm="1">
         <f t="array" ref="G182">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8970,8 +9371,11 @@
         <f t="array" ref="H182">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1036.068181250</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" s="1">
+        <v>584.93645833300002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -8987,9 +9391,8 @@
       <c r="E183" t="s">
         <v>12</v>
       </c>
-      <c r="F183" t="str" cm="1">
-        <f t="array" ref="F183">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-01 00:00:00</v>
+      <c r="F183" s="2">
+        <v>45474</v>
       </c>
       <c r="G183" t="str" cm="1">
         <f t="array" ref="G183">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -8999,8 +9402,11 @@
         <f t="array" ref="H183">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1203.490954166</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" s="1">
+        <v>597.09374999900001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -9016,9 +9422,8 @@
       <c r="E184" t="s">
         <v>9</v>
       </c>
-      <c r="F184" t="str" cm="1">
-        <f t="array" ref="F184">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-02 00:00:00</v>
+      <c r="F184" s="2">
+        <v>45475</v>
       </c>
       <c r="G184" t="str" cm="1">
         <f t="array" ref="G184">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9028,8 +9433,11 @@
         <f t="array" ref="H184">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1103.542534375</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" s="1">
+        <v>598.52604166599997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -9045,9 +9453,8 @@
       <c r="E185" t="s">
         <v>12</v>
       </c>
-      <c r="F185" t="str" cm="1">
-        <f t="array" ref="F185">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-03 00:00:00</v>
+      <c r="F185" s="2">
+        <v>45476</v>
       </c>
       <c r="G185" t="str" cm="1">
         <f t="array" ref="G185">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9057,8 +9464,11 @@
         <f t="array" ref="H185">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1088.826858333</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" s="1">
+        <v>579.45208333300002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -9074,9 +9484,8 @@
       <c r="E186" t="s">
         <v>9</v>
       </c>
-      <c r="F186" t="str" cm="1">
-        <f t="array" ref="F186">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-04 00:00:00</v>
+      <c r="F186" s="2">
+        <v>45477</v>
       </c>
       <c r="G186" t="str" cm="1">
         <f t="array" ref="G186">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9086,8 +9495,11 @@
         <f t="array" ref="H186">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1066.554460416</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" s="1">
+        <v>570.65729166599999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -9103,9 +9515,8 @@
       <c r="E187" t="s">
         <v>12</v>
       </c>
-      <c r="F187" t="str" cm="1">
-        <f t="array" ref="F187">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-05 00:00:00</v>
+      <c r="F187" s="2">
+        <v>45478</v>
       </c>
       <c r="G187" t="str" cm="1">
         <f t="array" ref="G187">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9115,8 +9526,11 @@
         <f t="array" ref="H187">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1081.110076041</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" s="1">
+        <v>587.16562499899999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -9132,9 +9546,8 @@
       <c r="E188" t="s">
         <v>9</v>
       </c>
-      <c r="F188" t="str" cm="1">
-        <f t="array" ref="F188">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-06 00:00:00</v>
+      <c r="F188" s="2">
+        <v>45479</v>
       </c>
       <c r="G188" t="str" cm="1">
         <f t="array" ref="G188">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9144,8 +9557,11 @@
         <f t="array" ref="H188">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>958.106228125</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" s="1">
+        <v>561.90833333299997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -9161,9 +9577,8 @@
       <c r="E189" t="s">
         <v>12</v>
       </c>
-      <c r="F189" t="str" cm="1">
-        <f t="array" ref="F189">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-07 00:00:00</v>
+      <c r="F189" s="2">
+        <v>45480</v>
       </c>
       <c r="G189" t="str" cm="1">
         <f t="array" ref="G189">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9173,8 +9588,11 @@
         <f t="array" ref="H189">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>963.578020833</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" s="1">
+        <v>546.19062499899997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -9190,9 +9608,8 @@
       <c r="E190" t="s">
         <v>9</v>
       </c>
-      <c r="F190" t="str" cm="1">
-        <f t="array" ref="F190">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-08 00:00:00</v>
+      <c r="F190" s="2">
+        <v>45481</v>
       </c>
       <c r="G190" t="str" cm="1">
         <f t="array" ref="G190">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9202,8 +9619,11 @@
         <f t="array" ref="H190">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1018.886963541</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" s="1">
+        <v>551.80312499899992</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -9219,9 +9639,8 @@
       <c r="E191" t="s">
         <v>12</v>
       </c>
-      <c r="F191" t="str" cm="1">
-        <f t="array" ref="F191">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-07-09 00:00:00</v>
+      <c r="F191" s="2">
+        <v>45482</v>
       </c>
       <c r="G191" t="str" cm="1">
         <f t="array" ref="G191">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9231,10 +9650,13 @@
         <f t="array" ref="H191">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1053.907325000</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F192" t="s">
-        <v>559</v>
+      <c r="I191" s="1">
+        <v>547.64999999899999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F192" s="2">
+        <v>45483</v>
       </c>
       <c r="G192" t="str" cm="1">
         <f t="array" ref="G192">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9244,8 +9666,11 @@
         <f t="array" ref="H192">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1048.347212500</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" s="1">
+        <v>560.65208333300006</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -9261,8 +9686,8 @@
       <c r="E193" t="s">
         <v>12</v>
       </c>
-      <c r="F193" t="s">
-        <v>562</v>
+      <c r="F193" s="2">
+        <v>45484</v>
       </c>
       <c r="G193" t="str" cm="1">
         <f t="array" ref="G193">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9272,10 +9697,13 @@
         <f t="array" ref="H193">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1076.264497916</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F194" t="s">
-        <v>565</v>
+      <c r="I193" s="1">
+        <v>572.13749999900006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F194" s="2">
+        <v>45485</v>
       </c>
       <c r="G194" t="str" cm="1">
         <f t="array" ref="G194">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9285,8 +9713,11 @@
         <f t="array" ref="H194">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1110.349760416</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" s="1">
+        <v>580.40208333299995</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -9302,8 +9733,8 @@
       <c r="E195" t="s">
         <v>12</v>
       </c>
-      <c r="F195" t="s">
-        <v>568</v>
+      <c r="F195" s="2">
+        <v>45486</v>
       </c>
       <c r="G195" t="str" cm="1">
         <f t="array" ref="G195">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9313,8 +9744,11 @@
         <f t="array" ref="H195">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>968.260994791</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" s="1">
+        <v>586.16145833299993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -9330,8 +9764,8 @@
       <c r="E196" t="s">
         <v>9</v>
       </c>
-      <c r="F196" t="s">
-        <v>571</v>
+      <c r="F196" s="2">
+        <v>45487</v>
       </c>
       <c r="G196" t="str" cm="1">
         <f t="array" ref="G196">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9341,8 +9775,11 @@
         <f t="array" ref="H196">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>980.132732291</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" s="1">
+        <v>579.77708333300006</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -9358,8 +9795,8 @@
       <c r="E197" t="s">
         <v>12</v>
       </c>
-      <c r="F197" t="s">
-        <v>574</v>
+      <c r="F197" s="2">
+        <v>45488</v>
       </c>
       <c r="G197" t="str" cm="1">
         <f t="array" ref="G197">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9369,10 +9806,13 @@
         <f t="array" ref="H197">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1027.799840625</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F198" t="s">
-        <v>577</v>
+      <c r="I197" s="1">
+        <v>585.62812499999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F198" s="2">
+        <v>45489</v>
       </c>
       <c r="G198" t="str" cm="1">
         <f t="array" ref="G198">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9382,8 +9822,11 @@
         <f t="array" ref="H198">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1064.198410416</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" s="1">
+        <v>587.25624999899992</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -9399,8 +9842,8 @@
       <c r="E199" t="s">
         <v>12</v>
       </c>
-      <c r="F199" t="s">
-        <v>580</v>
+      <c r="F199" s="2">
+        <v>45490</v>
       </c>
       <c r="G199" t="str" cm="1">
         <f t="array" ref="G199">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9410,10 +9853,13 @@
         <f t="array" ref="H199">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1059.808351041</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F200" t="s">
-        <v>583</v>
+      <c r="I199" s="1">
+        <v>561.21458333300006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F200" s="2">
+        <v>45491</v>
       </c>
       <c r="G200" t="str" cm="1">
         <f t="array" ref="G200">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9423,8 +9869,11 @@
         <f t="array" ref="H200">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1123.824382291</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" s="1">
+        <v>547.21250000000009</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -9440,8 +9889,8 @@
       <c r="E201" t="s">
         <v>12</v>
       </c>
-      <c r="F201" t="s">
-        <v>586</v>
+      <c r="F201" s="2">
+        <v>45492</v>
       </c>
       <c r="G201" t="str" cm="1">
         <f t="array" ref="G201">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9451,10 +9900,13 @@
         <f t="array" ref="H201">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1102.642258333</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F202" t="s">
-        <v>589</v>
+      <c r="I201" s="1">
+        <v>559.93437500000005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F202" s="2">
+        <v>45493</v>
       </c>
       <c r="G202" t="str" cm="1">
         <f t="array" ref="G202">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9464,8 +9916,11 @@
         <f t="array" ref="H202">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1008.342347916</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" s="1">
+        <v>551.45312499900001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -9481,8 +9936,8 @@
       <c r="E203" t="s">
         <v>12</v>
       </c>
-      <c r="F203" t="s">
-        <v>592</v>
+      <c r="F203" s="2">
+        <v>45494</v>
       </c>
       <c r="G203" t="str" cm="1">
         <f t="array" ref="G203">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9492,10 +9947,13 @@
         <f t="array" ref="H203">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>960.959962500</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F204" t="s">
-        <v>595</v>
+      <c r="I203" s="1">
+        <v>540.55624999899999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F204" s="2">
+        <v>45495</v>
       </c>
       <c r="G204" t="str" cm="1">
         <f t="array" ref="G204">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9505,8 +9963,11 @@
         <f t="array" ref="H204">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1017.075250000</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" s="1">
+        <v>566.71041666600001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -9522,8 +9983,8 @@
       <c r="E205" t="s">
         <v>12</v>
       </c>
-      <c r="F205" t="s">
-        <v>598</v>
+      <c r="F205" s="2">
+        <v>45496</v>
       </c>
       <c r="G205" t="str" cm="1">
         <f t="array" ref="G205">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9533,10 +9994,13 @@
         <f t="array" ref="H205">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1083.806994791</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F206" t="s">
-        <v>601</v>
+      <c r="I205" s="1">
+        <v>578.23541666599999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F206" s="2">
+        <v>45497</v>
       </c>
       <c r="G206" t="str" cm="1">
         <f t="array" ref="G206">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9546,8 +10010,11 @@
         <f t="array" ref="H206">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1086.862514583</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" s="1">
+        <v>577.57395833200007</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -9563,8 +10030,8 @@
       <c r="E207" t="s">
         <v>12</v>
       </c>
-      <c r="F207" t="s">
-        <v>604</v>
+      <c r="F207" s="2">
+        <v>45498</v>
       </c>
       <c r="G207" t="str" cm="1">
         <f t="array" ref="G207">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9574,10 +10041,13 @@
         <f t="array" ref="H207">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1085.001959375</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F208" t="s">
-        <v>607</v>
+      <c r="I207" s="1">
+        <v>566.44687499899999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F208" s="2">
+        <v>45499</v>
       </c>
       <c r="G208" t="str" cm="1">
         <f t="array" ref="G208">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9587,8 +10057,11 @@
         <f t="array" ref="H208">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1074.869266666</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" s="1">
+        <v>573.91979166600004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -9604,8 +10077,8 @@
       <c r="E209" t="s">
         <v>12</v>
       </c>
-      <c r="F209" t="s">
-        <v>610</v>
+      <c r="F209" s="2">
+        <v>45500</v>
       </c>
       <c r="G209" t="str" cm="1">
         <f t="array" ref="G209">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9615,10 +10088,13 @@
         <f t="array" ref="H209">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>976.972678125</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F210" t="s">
-        <v>613</v>
+      <c r="I209" s="1">
+        <v>591.65104166599997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F210" s="2">
+        <v>45501</v>
       </c>
       <c r="G210" t="str" cm="1">
         <f t="array" ref="G210">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9628,8 +10104,11 @@
         <f t="array" ref="H210">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>963.789936458</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" s="1">
+        <v>596.39166666599999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -9645,8 +10124,8 @@
       <c r="E211" t="s">
         <v>12</v>
       </c>
-      <c r="F211" t="s">
-        <v>616</v>
+      <c r="F211" s="2">
+        <v>45502</v>
       </c>
       <c r="G211" t="str" cm="1">
         <f t="array" ref="G211">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9656,10 +10135,13 @@
         <f t="array" ref="H211">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1074.309161458</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F212" t="s">
-        <v>619</v>
+      <c r="I211" s="1">
+        <v>606.73958333199994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F212" s="2">
+        <v>45503</v>
       </c>
       <c r="G212" t="str" cm="1">
         <f t="array" ref="G212">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9669,8 +10151,11 @@
         <f t="array" ref="H212">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1077.562397916</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" s="1">
+        <v>585.50520833299993</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -9686,8 +10171,8 @@
       <c r="E213" t="s">
         <v>12</v>
       </c>
-      <c r="F213" t="s">
-        <v>622</v>
+      <c r="F213" s="2">
+        <v>45504</v>
       </c>
       <c r="G213" t="str" cm="1">
         <f t="array" ref="G213">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9697,10 +10182,13 @@
         <f t="array" ref="H213">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1073.143153125</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F214" t="s">
-        <v>625</v>
+      <c r="I213" s="1">
+        <v>551.8687499990001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F214" s="2">
+        <v>45505</v>
       </c>
       <c r="G214" t="str" cm="1">
         <f t="array" ref="G214">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9710,8 +10198,11 @@
         <f t="array" ref="H214">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1067.043604166</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" s="1">
+        <v>552.35624999900006</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -9727,8 +10218,8 @@
       <c r="E215" t="s">
         <v>12</v>
       </c>
-      <c r="F215" t="s">
-        <v>628</v>
+      <c r="F215" s="2">
+        <v>45506</v>
       </c>
       <c r="G215" t="str" cm="1">
         <f t="array" ref="G215">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9738,10 +10229,13 @@
         <f t="array" ref="H215">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1065.619780208</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F216" t="s">
-        <v>631</v>
+      <c r="I215" s="1">
+        <v>575.06666666599995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F216" s="2">
+        <v>45507</v>
       </c>
       <c r="G216" t="str" cm="1">
         <f t="array" ref="G216">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9751,8 +10245,11 @@
         <f t="array" ref="H216">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1020.584430208</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" s="1">
+        <v>551.23333333200003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -9768,8 +10265,8 @@
       <c r="E217" t="s">
         <v>12</v>
       </c>
-      <c r="F217" t="s">
-        <v>634</v>
+      <c r="F217" s="2">
+        <v>45508</v>
       </c>
       <c r="G217" t="str" cm="1">
         <f t="array" ref="G217">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9779,10 +10276,13 @@
         <f t="array" ref="H217">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>963.872737500</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F218" t="s">
-        <v>637</v>
+      <c r="I217" s="1">
+        <v>535.773958333</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F218" s="2">
+        <v>45509</v>
       </c>
       <c r="G218" t="str" cm="1">
         <f t="array" ref="G218">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9792,8 +10292,11 @@
         <f t="array" ref="H218">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1084.478680208</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" s="1">
+        <v>552.67499999999995</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -9809,8 +10312,8 @@
       <c r="E219" t="s">
         <v>12</v>
       </c>
-      <c r="F219" t="s">
-        <v>640</v>
+      <c r="F219" s="2">
+        <v>45510</v>
       </c>
       <c r="G219" t="str" cm="1">
         <f t="array" ref="G219">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9820,10 +10323,13 @@
         <f t="array" ref="H219">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1151.577191666</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F220" t="s">
-        <v>643</v>
+      <c r="I219" s="1">
+        <v>573.92291666599999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F220" s="2">
+        <v>45511</v>
       </c>
       <c r="G220" t="str" cm="1">
         <f t="array" ref="G220">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9833,8 +10339,11 @@
         <f t="array" ref="H220">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1155.900119791</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" s="1">
+        <v>572.27187499899992</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -9850,8 +10359,8 @@
       <c r="E221" t="s">
         <v>12</v>
       </c>
-      <c r="F221" t="s">
-        <v>646</v>
+      <c r="F221" s="2">
+        <v>45512</v>
       </c>
       <c r="G221" t="str" cm="1">
         <f t="array" ref="G221">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9861,10 +10370,13 @@
         <f t="array" ref="H221">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1143.524929166</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F222" t="s">
-        <v>649</v>
+      <c r="I221" s="1">
+        <v>573.94687499999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F222" s="2">
+        <v>45513</v>
       </c>
       <c r="G222" t="str" cm="1">
         <f t="array" ref="G222">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9874,8 +10386,11 @@
         <f t="array" ref="H222">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1124.244108333</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" s="1">
+        <v>582.90833333299997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -9891,8 +10406,8 @@
       <c r="E223" t="s">
         <v>12</v>
       </c>
-      <c r="F223" t="s">
-        <v>652</v>
+      <c r="F223" s="2">
+        <v>45514</v>
       </c>
       <c r="G223" t="str" cm="1">
         <f t="array" ref="G223">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9902,10 +10417,13 @@
         <f t="array" ref="H223">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1033.576392708</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F224" t="s">
-        <v>655</v>
+      <c r="I223" s="1">
+        <v>576.914583333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F224" s="2">
+        <v>45515</v>
       </c>
       <c r="G224" t="str" cm="1">
         <f t="array" ref="G224">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9915,8 +10433,11 @@
         <f t="array" ref="H224">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1034.097656842</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" s="1">
+        <v>582.06041666600004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -9932,8 +10453,8 @@
       <c r="E225" t="s">
         <v>12</v>
       </c>
-      <c r="F225" t="s">
-        <v>658</v>
+      <c r="F225" s="2">
+        <v>45516</v>
       </c>
       <c r="G225" t="str" cm="1">
         <f t="array" ref="G225">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9943,10 +10464,13 @@
         <f t="array" ref="H225">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1196.662096875</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F226" t="s">
-        <v>661</v>
+      <c r="I225" s="1">
+        <v>603.18229166600008</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F226" s="2">
+        <v>45517</v>
       </c>
       <c r="G226" t="str" cm="1">
         <f t="array" ref="G226">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9956,8 +10480,11 @@
         <f t="array" ref="H226">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1146.620735416</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" s="1">
+        <v>580.73229166600004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -9973,9 +10500,8 @@
       <c r="E227" t="s">
         <v>12</v>
       </c>
-      <c r="F227" t="str" cm="1">
-        <f t="array" ref="F227">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-14 00:00:00</v>
+      <c r="F227" s="2">
+        <v>45518</v>
       </c>
       <c r="G227" t="str" cm="1">
         <f t="array" ref="G227">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -9985,8 +10511,11 @@
         <f t="array" ref="H227">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1115.542396875</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" s="1">
+        <v>577.96874999900001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -10002,9 +10531,8 @@
       <c r="E228" t="s">
         <v>9</v>
       </c>
-      <c r="F228" t="str" cm="1">
-        <f t="array" ref="F228">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-15 00:00:00</v>
+      <c r="F228" s="2">
+        <v>45519</v>
       </c>
       <c r="G228" t="str" cm="1">
         <f t="array" ref="G228">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10014,8 +10542,11 @@
         <f t="array" ref="H228">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1083.767828125</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" s="1">
+        <v>572.41145833299993</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -10031,9 +10562,8 @@
       <c r="E229" t="s">
         <v>12</v>
       </c>
-      <c r="F229" t="str" cm="1">
-        <f t="array" ref="F229">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-16 00:00:00</v>
+      <c r="F229" s="2">
+        <v>45520</v>
       </c>
       <c r="G229" t="str" cm="1">
         <f t="array" ref="G229">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10043,8 +10573,11 @@
         <f t="array" ref="H229">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1079.123969791</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" s="1">
+        <v>580.68645833300002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -10060,9 +10593,8 @@
       <c r="E230" t="s">
         <v>9</v>
       </c>
-      <c r="F230" t="str" cm="1">
-        <f t="array" ref="F230">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-17 00:00:00</v>
+      <c r="F230" s="2">
+        <v>45521</v>
       </c>
       <c r="G230" t="str" cm="1">
         <f t="array" ref="G230">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10072,8 +10604,11 @@
         <f t="array" ref="H230">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>953.997292708</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" s="1">
+        <v>565.37187499900006</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -10089,9 +10624,8 @@
       <c r="E231" t="s">
         <v>12</v>
       </c>
-      <c r="F231" t="str" cm="1">
-        <f t="array" ref="F231">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-18 00:00:00</v>
+      <c r="F231" s="2">
+        <v>45522</v>
       </c>
       <c r="G231" t="str" cm="1">
         <f t="array" ref="G231">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10101,8 +10635,11 @@
         <f t="array" ref="H231">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>984.139823958</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" s="1">
+        <v>550.8666666659999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -10118,9 +10655,8 @@
       <c r="E232" t="s">
         <v>9</v>
       </c>
-      <c r="F232" t="str" cm="1">
-        <f t="array" ref="F232">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-19 00:00:00</v>
+      <c r="F232" s="2">
+        <v>45523</v>
       </c>
       <c r="G232" t="str" cm="1">
         <f t="array" ref="G232">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10130,8 +10666,11 @@
         <f t="array" ref="H232">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1110.476864583</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" s="1">
+        <v>551.84479166599999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -10147,9 +10686,8 @@
       <c r="E233" t="s">
         <v>12</v>
       </c>
-      <c r="F233" t="str" cm="1">
-        <f t="array" ref="F233">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-20 00:00:00</v>
+      <c r="F233" s="2">
+        <v>45524</v>
       </c>
       <c r="G233" t="str" cm="1">
         <f t="array" ref="G233">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10159,8 +10697,11 @@
         <f t="array" ref="H233">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1283.697736458</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" s="1">
+        <v>561.03437499899997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -10176,9 +10717,8 @@
       <c r="E234" t="s">
         <v>9</v>
       </c>
-      <c r="F234" t="str" cm="1">
-        <f t="array" ref="F234">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-21 00:00:00</v>
+      <c r="F234" s="2">
+        <v>45525</v>
       </c>
       <c r="G234" t="str" cm="1">
         <f t="array" ref="G234">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10188,8 +10728,11 @@
         <f t="array" ref="H234">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1166.348563541</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" s="1">
+        <v>561.78854166600001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -10205,9 +10748,8 @@
       <c r="E235" t="s">
         <v>12</v>
       </c>
-      <c r="F235" t="str" cm="1">
-        <f t="array" ref="F235">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-22 00:00:00</v>
+      <c r="F235" s="2">
+        <v>45526</v>
       </c>
       <c r="G235" t="str" cm="1">
         <f t="array" ref="G235">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10217,8 +10759,11 @@
         <f t="array" ref="H235">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1191.360571875</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" s="1">
+        <v>565.25520833300004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -10234,9 +10779,8 @@
       <c r="E236" t="s">
         <v>9</v>
       </c>
-      <c r="F236" t="str" cm="1">
-        <f t="array" ref="F236">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-23 00:00:00</v>
+      <c r="F236" s="2">
+        <v>45527</v>
       </c>
       <c r="G236" t="str" cm="1">
         <f t="array" ref="G236">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10246,8 +10790,11 @@
         <f t="array" ref="H236">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1064.794416666</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" s="1">
+        <v>569.69791666600008</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -10263,9 +10810,8 @@
       <c r="E237" t="s">
         <v>12</v>
       </c>
-      <c r="F237" t="str" cm="1">
-        <f t="array" ref="F237">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-24 00:00:00</v>
+      <c r="F237" s="2">
+        <v>45528</v>
       </c>
       <c r="G237" t="str" cm="1">
         <f t="array" ref="G237">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10275,8 +10821,11 @@
         <f t="array" ref="H237">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1019.624318750</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" s="1">
+        <v>570.09895833299993</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -10292,9 +10841,8 @@
       <c r="E238" t="s">
         <v>9</v>
       </c>
-      <c r="F238" t="str" cm="1">
-        <f t="array" ref="F238">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-25 00:00:00</v>
+      <c r="F238" s="2">
+        <v>45529</v>
       </c>
       <c r="G238" t="str" cm="1">
         <f t="array" ref="G238">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10304,8 +10852,11 @@
         <f t="array" ref="H238">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>986.486677083</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" s="1">
+        <v>582.23541666599999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -10321,9 +10872,8 @@
       <c r="E239" t="s">
         <v>12</v>
       </c>
-      <c r="F239" t="str" cm="1">
-        <f t="array" ref="F239">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-26 00:00:00</v>
+      <c r="F239" s="2">
+        <v>45530</v>
       </c>
       <c r="G239" t="str" cm="1">
         <f t="array" ref="G239">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10333,8 +10883,11 @@
         <f t="array" ref="H239">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1083.888208333</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" s="1">
+        <v>601.17395833199998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -10350,9 +10903,8 @@
       <c r="E240" t="s">
         <v>9</v>
       </c>
-      <c r="F240" t="str" cm="1">
-        <f t="array" ref="F240">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-27 00:00:00</v>
+      <c r="F240" s="2">
+        <v>45531</v>
       </c>
       <c r="G240" t="str" cm="1">
         <f t="array" ref="G240">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10362,8 +10914,11 @@
         <f t="array" ref="H240">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1081.468154166</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" s="1">
+        <v>595.30624999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -10379,9 +10934,8 @@
       <c r="E241" t="s">
         <v>12</v>
       </c>
-      <c r="F241" t="str" cm="1">
-        <f t="array" ref="F241">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-28 00:00:00</v>
+      <c r="F241" s="2">
+        <v>45532</v>
       </c>
       <c r="G241" t="str" cm="1">
         <f t="array" ref="G241">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10391,8 +10945,11 @@
         <f t="array" ref="H241">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1042.357584375</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241" s="1">
+        <v>585.21562499900006</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -10408,9 +10965,8 @@
       <c r="E242" t="s">
         <v>9</v>
       </c>
-      <c r="F242" t="str" cm="1">
-        <f t="array" ref="F242">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-29 00:00:00</v>
+      <c r="F242" s="2">
+        <v>45533</v>
       </c>
       <c r="G242" t="str" cm="1">
         <f t="array" ref="G242">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10420,8 +10976,11 @@
         <f t="array" ref="H242">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1126.959776041</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242" s="1">
+        <v>586.33958333200007</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -10437,9 +10996,8 @@
       <c r="E243" t="s">
         <v>12</v>
       </c>
-      <c r="F243" t="str" cm="1">
-        <f t="array" ref="F243">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-30 00:00:00</v>
+      <c r="F243" s="2">
+        <v>45534</v>
       </c>
       <c r="G243" t="str" cm="1">
         <f t="array" ref="G243">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10449,8 +11007,11 @@
         <f t="array" ref="H243">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1126.568035416</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243" s="1">
+        <v>586.19791666600008</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -10466,9 +11027,8 @@
       <c r="E244" t="s">
         <v>9</v>
       </c>
-      <c r="F244" t="str" cm="1">
-        <f t="array" ref="F244">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-08-31 00:00:00</v>
+      <c r="F244" s="2">
+        <v>45535</v>
       </c>
       <c r="G244" t="str" cm="1">
         <f t="array" ref="G244">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10478,8 +11038,11 @@
         <f t="array" ref="H244">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1097.934266666</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244" s="1">
+        <v>575.34270833200003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -10495,9 +11058,8 @@
       <c r="E245" t="s">
         <v>12</v>
       </c>
-      <c r="F245" t="str" cm="1">
-        <f t="array" ref="F245">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-01 00:00:00</v>
+      <c r="F245" s="2">
+        <v>45536</v>
       </c>
       <c r="G245" t="str" cm="1">
         <f t="array" ref="G245">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10507,8 +11069,11 @@
         <f t="array" ref="H245">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>993.960313541</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" s="1">
+        <v>564.83020833199998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -10524,9 +11089,8 @@
       <c r="E246" t="s">
         <v>9</v>
       </c>
-      <c r="F246" t="str" cm="1">
-        <f t="array" ref="F246">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-02 00:00:00</v>
+      <c r="F246" s="2">
+        <v>45537</v>
       </c>
       <c r="G246" t="str" cm="1">
         <f t="array" ref="G246">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10536,8 +11100,11 @@
         <f t="array" ref="H246">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1170.973476041</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246" s="1">
+        <v>559.86979166600008</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -10553,9 +11120,8 @@
       <c r="E247" t="s">
         <v>12</v>
       </c>
-      <c r="F247" t="str" cm="1">
-        <f t="array" ref="F247">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-03 00:00:00</v>
+      <c r="F247" s="2">
+        <v>45538</v>
       </c>
       <c r="G247" t="str" cm="1">
         <f t="array" ref="G247">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10565,8 +11131,11 @@
         <f t="array" ref="H247">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1229.586426041</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247" s="1">
+        <v>590.90937499899997</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -10582,9 +11151,8 @@
       <c r="E248" t="s">
         <v>9</v>
       </c>
-      <c r="F248" t="str" cm="1">
-        <f t="array" ref="F248">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-04 00:00:00</v>
+      <c r="F248" s="2">
+        <v>45539</v>
       </c>
       <c r="G248" t="str" cm="1">
         <f t="array" ref="G248">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10594,8 +11162,11 @@
         <f t="array" ref="H248">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1115.775939583</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248" s="1">
+        <v>597.13645833300006</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -10611,9 +11182,8 @@
       <c r="E249" t="s">
         <v>12</v>
       </c>
-      <c r="F249" t="str" cm="1">
-        <f t="array" ref="F249">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-05 00:00:00</v>
+      <c r="F249" s="2">
+        <v>45540</v>
       </c>
       <c r="G249" t="str" cm="1">
         <f t="array" ref="G249">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10623,8 +11193,11 @@
         <f t="array" ref="H249">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1109.323273958</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249" s="1">
+        <v>566.23958333200005</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -10640,9 +11213,8 @@
       <c r="E250" t="s">
         <v>9</v>
       </c>
-      <c r="F250" t="str" cm="1">
-        <f t="array" ref="F250">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-06 00:00:00</v>
+      <c r="F250" s="2">
+        <v>45541</v>
       </c>
       <c r="G250" t="str" cm="1">
         <f t="array" ref="G250">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10652,8 +11224,11 @@
         <f t="array" ref="H250">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1085.991711458</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250" s="1">
+        <v>578.17708333200005</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -10669,9 +11244,8 @@
       <c r="E251" t="s">
         <v>12</v>
       </c>
-      <c r="F251" t="str" cm="1">
-        <f t="array" ref="F251">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-07 00:00:00</v>
+      <c r="F251" s="2">
+        <v>45542</v>
       </c>
       <c r="G251" t="str" cm="1">
         <f t="array" ref="G251">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10681,8 +11255,11 @@
         <f t="array" ref="H251">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1049.569587500</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251" s="1">
+        <v>578.46562500000005</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -10698,9 +11275,8 @@
       <c r="E252" t="s">
         <v>9</v>
       </c>
-      <c r="F252" t="str" cm="1">
-        <f t="array" ref="F252">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-08 00:00:00</v>
+      <c r="F252" s="2">
+        <v>45543</v>
       </c>
       <c r="G252" t="str" cm="1">
         <f t="array" ref="G252">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10710,8 +11286,11 @@
         <f t="array" ref="H252">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1116.599218750</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252" s="1">
+        <v>588.67916666600001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -10727,9 +11306,8 @@
       <c r="E253" t="s">
         <v>12</v>
       </c>
-      <c r="F253" t="str" cm="1">
-        <f t="array" ref="F253">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-09 00:00:00</v>
+      <c r="F253" s="2">
+        <v>45544</v>
       </c>
       <c r="G253" t="str" cm="1">
         <f t="array" ref="G253">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10739,8 +11317,11 @@
         <f t="array" ref="H253">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1184.638113541</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253" s="1">
+        <v>599.34374999900001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -10756,9 +11337,8 @@
       <c r="E254" t="s">
         <v>9</v>
       </c>
-      <c r="F254" t="str" cm="1">
-        <f t="array" ref="F254">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-10 00:00:00</v>
+      <c r="F254" s="2">
+        <v>45545</v>
       </c>
       <c r="G254" t="str" cm="1">
         <f t="array" ref="G254">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10768,8 +11348,11 @@
         <f t="array" ref="H254">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1248.708781250</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254" s="1">
+        <v>599.86458333199994</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -10785,9 +11368,8 @@
       <c r="E255" t="s">
         <v>12</v>
       </c>
-      <c r="F255" t="str" cm="1">
-        <f t="array" ref="F255">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-11 00:00:00</v>
+      <c r="F255" s="2">
+        <v>45546</v>
       </c>
       <c r="G255" t="str" cm="1">
         <f t="array" ref="G255">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10797,8 +11379,11 @@
         <f t="array" ref="H255">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1167.399397916</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255" s="1">
+        <v>574.74791666600004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -10814,9 +11399,8 @@
       <c r="E256" t="s">
         <v>9</v>
       </c>
-      <c r="F256" t="str" cm="1">
-        <f t="array" ref="F256">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-12 00:00:00</v>
+      <c r="F256" s="2">
+        <v>45547</v>
       </c>
       <c r="G256" t="str" cm="1">
         <f t="array" ref="G256">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10826,8 +11410,11 @@
         <f t="array" ref="H256">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1159.134323958</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256" s="1">
+        <v>562.86874999899999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>10</v>
       </c>
@@ -10843,9 +11430,8 @@
       <c r="E257" t="s">
         <v>12</v>
       </c>
-      <c r="F257" t="str" cm="1">
-        <f t="array" ref="F257">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-13 00:00:00</v>
+      <c r="F257" s="2">
+        <v>45548</v>
       </c>
       <c r="G257" t="str" cm="1">
         <f t="array" ref="G257">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10855,8 +11441,11 @@
         <f t="array" ref="H257">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1116.526587500</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257" s="1">
+        <v>583.88229166600001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -10872,9 +11461,8 @@
       <c r="E258" t="s">
         <v>9</v>
       </c>
-      <c r="F258" t="str" cm="1">
-        <f t="array" ref="F258">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-14 00:00:00</v>
+      <c r="F258" s="2">
+        <v>45549</v>
       </c>
       <c r="G258" t="str" cm="1">
         <f t="array" ref="G258">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10884,8 +11472,11 @@
         <f t="array" ref="H258">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1029.046667708</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I258" s="1">
+        <v>571.09687499899997</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -10901,9 +11492,8 @@
       <c r="E259" t="s">
         <v>12</v>
       </c>
-      <c r="F259" t="str" cm="1">
-        <f t="array" ref="F259">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-15 00:00:00</v>
+      <c r="F259" s="2">
+        <v>45550</v>
       </c>
       <c r="G259" t="str" cm="1">
         <f t="array" ref="G259">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10913,8 +11503,11 @@
         <f t="array" ref="H259">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>984.494151041</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I259" s="1">
+        <v>545.35937499900001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -10930,9 +11523,8 @@
       <c r="E260" t="s">
         <v>9</v>
       </c>
-      <c r="F260" t="str" cm="1">
-        <f t="array" ref="F260">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-16 00:00:00</v>
+      <c r="F260" s="2">
+        <v>45551</v>
       </c>
       <c r="G260" t="str" cm="1">
         <f t="array" ref="G260">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10942,8 +11534,11 @@
         <f t="array" ref="H260">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1147.731833333</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I260" s="1">
+        <v>554.91666666599997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -10959,9 +11554,8 @@
       <c r="E261" t="s">
         <v>12</v>
       </c>
-      <c r="F261" t="str" cm="1">
-        <f t="array" ref="F261">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-17 00:00:00</v>
+      <c r="F261" s="2">
+        <v>45552</v>
       </c>
       <c r="G261" t="str" cm="1">
         <f t="array" ref="G261">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -10971,8 +11565,11 @@
         <f t="array" ref="H261">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1226.768090625</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I261" s="1">
+        <v>573.27499999899999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -10988,9 +11585,8 @@
       <c r="E262" t="s">
         <v>9</v>
       </c>
-      <c r="F262" t="str" cm="1">
-        <f t="array" ref="F262">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-18 00:00:00</v>
+      <c r="F262" s="2">
+        <v>45553</v>
       </c>
       <c r="G262" t="str" cm="1">
         <f t="array" ref="G262">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11000,8 +11596,11 @@
         <f t="array" ref="H262">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1198.750079166</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262" s="1">
+        <v>577.70937500000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -11017,9 +11616,8 @@
       <c r="E263" t="s">
         <v>12</v>
       </c>
-      <c r="F263" t="str" cm="1">
-        <f t="array" ref="F263">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-19 00:00:00</v>
+      <c r="F263" s="2">
+        <v>45554</v>
       </c>
       <c r="G263" t="str" cm="1">
         <f t="array" ref="G263">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11029,8 +11627,11 @@
         <f t="array" ref="H263">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1256.642836458</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I263" s="1">
+        <v>581.76145833299995</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -11046,9 +11647,8 @@
       <c r="E264" t="s">
         <v>9</v>
       </c>
-      <c r="F264" t="str" cm="1">
-        <f t="array" ref="F264">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-20 00:00:00</v>
+      <c r="F264" s="2">
+        <v>45555</v>
       </c>
       <c r="G264" t="str" cm="1">
         <f t="array" ref="G264">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11058,8 +11658,11 @@
         <f t="array" ref="H264">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1148.456314583</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I264" s="1">
+        <v>596.42708333300004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>10</v>
       </c>
@@ -11075,9 +11678,8 @@
       <c r="E265" t="s">
         <v>12</v>
       </c>
-      <c r="F265" t="str" cm="1">
-        <f t="array" ref="F265">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-21 00:00:00</v>
+      <c r="F265" s="2">
+        <v>45556</v>
       </c>
       <c r="G265" t="str" cm="1">
         <f t="array" ref="G265">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11087,8 +11689,11 @@
         <f t="array" ref="H265">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>992.915420833</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I265" s="1">
+        <v>588.58645833200001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -11104,9 +11709,8 @@
       <c r="E266" t="s">
         <v>9</v>
       </c>
-      <c r="F266" t="str" cm="1">
-        <f t="array" ref="F266">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-22 00:00:00</v>
+      <c r="F266" s="2">
+        <v>45557</v>
       </c>
       <c r="G266" t="str" cm="1">
         <f t="array" ref="G266">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11116,8 +11720,11 @@
         <f t="array" ref="H266">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1008.526039583</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266" s="1">
+        <v>602.37291666600004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -11133,9 +11740,8 @@
       <c r="E267" t="s">
         <v>12</v>
       </c>
-      <c r="F267" t="str" cm="1">
-        <f t="array" ref="F267">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-23 00:00:00</v>
+      <c r="F267" s="2">
+        <v>45558</v>
       </c>
       <c r="G267" t="str" cm="1">
         <f t="array" ref="G267">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11145,8 +11751,11 @@
         <f t="array" ref="H267">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1238.358410416</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267" s="1">
+        <v>613.9916666659999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -11162,9 +11771,8 @@
       <c r="E268" t="s">
         <v>9</v>
       </c>
-      <c r="F268" t="str" cm="1">
-        <f t="array" ref="F268">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-24 00:00:00</v>
+      <c r="F268" s="2">
+        <v>45559</v>
       </c>
       <c r="G268" t="str" cm="1">
         <f t="array" ref="G268">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11174,8 +11782,11 @@
         <f t="array" ref="H268">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1428.014593750</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268" s="1">
+        <v>582.79583333300002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -11191,9 +11802,8 @@
       <c r="E269" t="s">
         <v>12</v>
       </c>
-      <c r="F269" t="str" cm="1">
-        <f t="array" ref="F269">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-25 00:00:00</v>
+      <c r="F269" s="2">
+        <v>45560</v>
       </c>
       <c r="G269" t="str" cm="1">
         <f t="array" ref="G269">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11203,8 +11813,11 @@
         <f t="array" ref="H269">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1360.767773958</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269" s="1">
+        <v>584.47395833299993</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -11220,9 +11833,8 @@
       <c r="E270" t="s">
         <v>9</v>
       </c>
-      <c r="F270" t="str" cm="1">
-        <f t="array" ref="F270">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-26 00:00:00</v>
+      <c r="F270" s="2">
+        <v>45561</v>
       </c>
       <c r="G270" t="str" cm="1">
         <f t="array" ref="G270">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11232,8 +11844,11 @@
         <f t="array" ref="H270">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1349.748410416</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270" s="1">
+        <v>591.57395833300006</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -11249,9 +11864,8 @@
       <c r="E271" t="s">
         <v>12</v>
       </c>
-      <c r="F271" t="str" cm="1">
-        <f t="array" ref="F271">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-27 00:00:00</v>
+      <c r="F271" s="2">
+        <v>45562</v>
       </c>
       <c r="G271" t="str" cm="1">
         <f t="array" ref="G271">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11261,8 +11875,11 @@
         <f t="array" ref="H271">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1241.840651041</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I271" s="1">
+        <v>607.61666666600001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -11278,9 +11895,8 @@
       <c r="E272" t="s">
         <v>9</v>
       </c>
-      <c r="F272" t="str" cm="1">
-        <f t="array" ref="F272">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-28 00:00:00</v>
+      <c r="F272" s="2">
+        <v>45563</v>
       </c>
       <c r="G272" t="str" cm="1">
         <f t="array" ref="G272">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11290,8 +11906,11 @@
         <f t="array" ref="H272">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1119.428971875</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I272" s="1">
+        <v>590.68020833200001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -11307,9 +11926,8 @@
       <c r="E273" t="s">
         <v>12</v>
       </c>
-      <c r="F273" t="str" cm="1">
-        <f t="array" ref="F273">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-29 00:00:00</v>
+      <c r="F273" s="2">
+        <v>45564</v>
       </c>
       <c r="G273" t="str" cm="1">
         <f t="array" ref="G273">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11319,8 +11937,11 @@
         <f t="array" ref="H273">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1145.822654166</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I273" s="1">
+        <v>566.43124999899999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -11336,9 +11957,8 @@
       <c r="E274" t="s">
         <v>9</v>
       </c>
-      <c r="F274" t="str" cm="1">
-        <f t="array" ref="F274">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-09-30 00:00:00</v>
+      <c r="F274" s="2">
+        <v>45565</v>
       </c>
       <c r="G274" t="str" cm="1">
         <f t="array" ref="G274">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11348,8 +11968,11 @@
         <f t="array" ref="H274">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1281.082103125</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274" s="1">
+        <v>577.75</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>10</v>
       </c>
@@ -11365,9 +11988,8 @@
       <c r="E275" t="s">
         <v>12</v>
       </c>
-      <c r="F275" t="str" cm="1">
-        <f t="array" ref="F275">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-01 00:00:00</v>
+      <c r="F275" s="2">
+        <v>45566</v>
       </c>
       <c r="G275" t="str" cm="1">
         <f t="array" ref="G275">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11377,8 +11999,11 @@
         <f t="array" ref="H275">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1302.034767708</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I275" s="1">
+        <v>585.53437499899997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -11394,9 +12019,8 @@
       <c r="E276" t="s">
         <v>9</v>
       </c>
-      <c r="F276" t="str" cm="1">
-        <f t="array" ref="F276">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-02 00:00:00</v>
+      <c r="F276" s="2">
+        <v>45567</v>
       </c>
       <c r="G276" t="str" cm="1">
         <f t="array" ref="G276">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11406,8 +12030,11 @@
         <f t="array" ref="H276">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1323.031064583</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276" s="1">
+        <v>610.34374999900001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>10</v>
       </c>
@@ -11423,9 +12050,8 @@
       <c r="E277" t="s">
         <v>12</v>
       </c>
-      <c r="F277" t="str" cm="1">
-        <f t="array" ref="F277">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-03 00:00:00</v>
+      <c r="F277" s="2">
+        <v>45568</v>
       </c>
       <c r="G277" t="str" cm="1">
         <f t="array" ref="G277">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11435,8 +12061,11 @@
         <f t="array" ref="H277">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1298.146053125</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I277" s="1">
+        <v>609.45937499900003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -11452,9 +12081,8 @@
       <c r="E278" t="s">
         <v>9</v>
       </c>
-      <c r="F278" t="str" cm="1">
-        <f t="array" ref="F278">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-04 00:00:00</v>
+      <c r="F278" s="2">
+        <v>45569</v>
       </c>
       <c r="G278" t="str" cm="1">
         <f t="array" ref="G278">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11464,8 +12092,11 @@
         <f t="array" ref="H278">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1162.313136458</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278" s="1">
+        <v>614.68541666600004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -11481,9 +12112,8 @@
       <c r="E279" t="s">
         <v>12</v>
       </c>
-      <c r="F279" t="str" cm="1">
-        <f t="array" ref="F279">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-05 00:00:00</v>
+      <c r="F279" s="2">
+        <v>45570</v>
       </c>
       <c r="G279" t="str" cm="1">
         <f t="array" ref="G279">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11493,8 +12123,11 @@
         <f t="array" ref="H279">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1035.554069791</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I279" s="1">
+        <v>590.21562499900006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -11510,9 +12143,8 @@
       <c r="E280" t="s">
         <v>9</v>
       </c>
-      <c r="F280" t="str" cm="1">
-        <f t="array" ref="F280">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-06 00:00:00</v>
+      <c r="F280" s="2">
+        <v>45571</v>
       </c>
       <c r="G280" t="str" cm="1">
         <f t="array" ref="G280">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11522,8 +12154,11 @@
         <f t="array" ref="H280">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1058.305972916</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I280" s="1">
+        <v>615.13229166600001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -11539,9 +12174,8 @@
       <c r="E281" t="s">
         <v>12</v>
       </c>
-      <c r="F281" t="str" cm="1">
-        <f t="array" ref="F281">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-07 00:00:00</v>
+      <c r="F281" s="2">
+        <v>45572</v>
       </c>
       <c r="G281" t="str" cm="1">
         <f t="array" ref="G281">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11551,8 +12185,11 @@
         <f t="array" ref="H281">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1302.421569791</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I281" s="1">
+        <v>633.42083333300002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -11568,9 +12205,8 @@
       <c r="E282" t="s">
         <v>9</v>
       </c>
-      <c r="F282" t="str" cm="1">
-        <f t="array" ref="F282">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-08 00:00:00</v>
+      <c r="F282" s="2">
+        <v>45573</v>
       </c>
       <c r="G282" t="str" cm="1">
         <f t="array" ref="G282">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11580,8 +12216,11 @@
         <f t="array" ref="H282">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1400.887250000</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I282" s="1">
+        <v>620.28131720400006</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -11597,9 +12236,8 @@
       <c r="E283" t="s">
         <v>12</v>
       </c>
-      <c r="F283" t="str" cm="1">
-        <f t="array" ref="F283">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-09 00:00:00</v>
+      <c r="F283" s="2">
+        <v>45574</v>
       </c>
       <c r="G283" t="str" cm="1">
         <f t="array" ref="G283">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11609,8 +12247,11 @@
         <f t="array" ref="H283">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1346.075726041</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I283" s="1">
+        <v>576.56145833300002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -11626,9 +12267,8 @@
       <c r="E284" t="s">
         <v>9</v>
       </c>
-      <c r="F284" t="str" cm="1">
-        <f t="array" ref="F284">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-10 00:00:00</v>
+      <c r="F284" s="2">
+        <v>45575</v>
       </c>
       <c r="G284" t="str" cm="1">
         <f t="array" ref="G284">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11638,8 +12278,11 @@
         <f t="array" ref="H284">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1459.820072916</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I284" s="1">
+        <v>586.32708333200003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -11655,9 +12298,8 @@
       <c r="E285" t="s">
         <v>12</v>
       </c>
-      <c r="F285" t="str" cm="1">
-        <f t="array" ref="F285">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-11 00:00:00</v>
+      <c r="F285" s="2">
+        <v>45576</v>
       </c>
       <c r="G285" t="str" cm="1">
         <f t="array" ref="G285">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11667,8 +12309,11 @@
         <f t="array" ref="H285">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1352.544545833</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I285" s="1">
+        <v>584.27083333299993</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -11684,9 +12329,8 @@
       <c r="E286" t="s">
         <v>9</v>
       </c>
-      <c r="F286" t="str" cm="1">
-        <f t="array" ref="F286">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-12 00:00:00</v>
+      <c r="F286" s="2">
+        <v>45577</v>
       </c>
       <c r="G286" t="str" cm="1">
         <f t="array" ref="G286">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11696,8 +12340,11 @@
         <f t="array" ref="H286">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1138.265162500</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I286" s="1">
+        <v>563.13854166600004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -11713,9 +12360,8 @@
       <c r="E287" t="s">
         <v>12</v>
       </c>
-      <c r="F287" t="str" cm="1">
-        <f t="array" ref="F287">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-13 00:00:00</v>
+      <c r="F287" s="2">
+        <v>45578</v>
       </c>
       <c r="G287" t="str" cm="1">
         <f t="array" ref="G287">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11725,8 +12371,11 @@
         <f t="array" ref="H287">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1195.265662500</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I287" s="1">
+        <v>578.51770833299997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -11742,9 +12391,8 @@
       <c r="E288" t="s">
         <v>9</v>
       </c>
-      <c r="F288" t="str" cm="1">
-        <f t="array" ref="F288">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-14 00:00:00</v>
+      <c r="F288" s="2">
+        <v>45579</v>
       </c>
       <c r="G288" t="str" cm="1">
         <f t="array" ref="G288">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11754,8 +12402,11 @@
         <f t="array" ref="H288">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1441.443989583</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I288" s="1">
+        <v>573.398958333</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -11771,9 +12422,8 @@
       <c r="E289" t="s">
         <v>12</v>
       </c>
-      <c r="F289" t="str" cm="1">
-        <f t="array" ref="F289">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-15 00:00:00</v>
+      <c r="F289" s="2">
+        <v>45580</v>
       </c>
       <c r="G289" t="str" cm="1">
         <f t="array" ref="G289">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11783,8 +12433,11 @@
         <f t="array" ref="H289">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1475.055697916</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I289" s="1">
+        <v>588.59791666599995</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -11800,9 +12453,8 @@
       <c r="E290" t="s">
         <v>9</v>
       </c>
-      <c r="F290" t="str" cm="1">
-        <f t="array" ref="F290">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-16 00:00:00</v>
+      <c r="F290" s="2">
+        <v>45581</v>
       </c>
       <c r="G290" t="str" cm="1">
         <f t="array" ref="G290">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11812,8 +12464,11 @@
         <f t="array" ref="H290">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1477.562041666</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I290" s="1">
+        <v>599.945833333</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -11829,9 +12484,8 @@
       <c r="E291" t="s">
         <v>12</v>
       </c>
-      <c r="F291" t="str" cm="1">
-        <f t="array" ref="F291">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-17 00:00:00</v>
+      <c r="F291" s="2">
+        <v>45582</v>
       </c>
       <c r="G291" t="str" cm="1">
         <f t="array" ref="G291">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11841,8 +12495,11 @@
         <f t="array" ref="H291">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1480.467916666</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I291" s="1">
+        <v>598.74687499900006</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -11858,9 +12515,8 @@
       <c r="E292" t="s">
         <v>9</v>
       </c>
-      <c r="F292" t="str" cm="1">
-        <f t="array" ref="F292">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-18 00:00:00</v>
+      <c r="F292" s="2">
+        <v>45583</v>
       </c>
       <c r="G292" t="str" cm="1">
         <f t="array" ref="G292">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11870,8 +12526,11 @@
         <f t="array" ref="H292">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1409.872264583</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I292" s="1">
+        <v>601.13541666599997</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -11887,9 +12546,8 @@
       <c r="E293" t="s">
         <v>12</v>
       </c>
-      <c r="F293" t="str" cm="1">
-        <f t="array" ref="F293">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-19 00:00:00</v>
+      <c r="F293" s="2">
+        <v>45584</v>
       </c>
       <c r="G293" t="str" cm="1">
         <f t="array" ref="G293">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11899,8 +12557,11 @@
         <f t="array" ref="H293">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1243.919673958</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I293" s="1">
+        <v>604.86145833299997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -11916,9 +12577,8 @@
       <c r="E294" t="s">
         <v>9</v>
       </c>
-      <c r="F294" t="str" cm="1">
-        <f t="array" ref="F294">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-20 00:00:00</v>
+      <c r="F294" s="2">
+        <v>45585</v>
       </c>
       <c r="G294" t="str" cm="1">
         <f t="array" ref="G294">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11928,8 +12588,11 @@
         <f t="array" ref="H294">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1177.866197916</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I294" s="1">
+        <v>620.83437499900003</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -11945,9 +12608,8 @@
       <c r="E295" t="s">
         <v>12</v>
       </c>
-      <c r="F295" t="str" cm="1">
-        <f t="array" ref="F295">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-21 00:00:00</v>
+      <c r="F295" s="2">
+        <v>45586</v>
       </c>
       <c r="G295" t="str" cm="1">
         <f t="array" ref="G295">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11957,8 +12619,11 @@
         <f t="array" ref="H295">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1200.145133333</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295" s="1">
+        <v>626.08437499900003</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -11974,9 +12639,8 @@
       <c r="E296" t="s">
         <v>9</v>
       </c>
-      <c r="F296" t="str" cm="1">
-        <f t="array" ref="F296">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-22 00:00:00</v>
+      <c r="F296" s="2">
+        <v>45587</v>
       </c>
       <c r="G296" t="str" cm="1">
         <f t="array" ref="G296">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -11986,8 +12650,11 @@
         <f t="array" ref="H296">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1244.503018750</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296" s="1">
+        <v>612.16666666599997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -12003,9 +12670,8 @@
       <c r="E297" t="s">
         <v>12</v>
       </c>
-      <c r="F297" t="str" cm="1">
-        <f t="array" ref="F297">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-23 00:00:00</v>
+      <c r="F297" s="2">
+        <v>45588</v>
       </c>
       <c r="G297" t="str" cm="1">
         <f t="array" ref="G297">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12015,8 +12681,11 @@
         <f t="array" ref="H297">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1227.532163541</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297" s="1">
+        <v>561.68541666600004</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -12032,9 +12701,8 @@
       <c r="E298" t="s">
         <v>9</v>
       </c>
-      <c r="F298" t="str" cm="1">
-        <f t="array" ref="F298">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-24 00:00:00</v>
+      <c r="F298" s="2">
+        <v>45589</v>
       </c>
       <c r="G298" t="str" cm="1">
         <f t="array" ref="G298">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12044,8 +12712,11 @@
         <f t="array" ref="H298">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1293.455920833</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298" s="1">
+        <v>576.47127659499995</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -12061,9 +12732,8 @@
       <c r="E299" t="s">
         <v>12</v>
       </c>
-      <c r="F299" t="str" cm="1">
-        <f t="array" ref="F299">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-25 00:00:00</v>
+      <c r="F299" s="2">
+        <v>45590</v>
       </c>
       <c r="G299" t="str" cm="1">
         <f t="array" ref="G299">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12073,8 +12743,11 @@
         <f t="array" ref="H299">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1400.487286458</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299" s="1">
+        <v>600.70833333299993</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -12090,9 +12763,8 @@
       <c r="E300" t="s">
         <v>9</v>
       </c>
-      <c r="F300" t="str" cm="1">
-        <f t="array" ref="F300">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-26 00:00:00</v>
+      <c r="F300" s="2">
+        <v>45591</v>
       </c>
       <c r="G300" t="str" cm="1">
         <f t="array" ref="G300">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12102,8 +12774,11 @@
         <f t="array" ref="H300">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1086.081093750</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300" s="1">
+        <v>580.58020833299997</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -12119,9 +12794,8 @@
       <c r="E301" t="s">
         <v>12</v>
       </c>
-      <c r="F301" t="str" cm="1">
-        <f t="array" ref="F301">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-27 00:00:00</v>
+      <c r="F301" s="2">
+        <v>45592</v>
       </c>
       <c r="G301" t="str" cm="1">
         <f t="array" ref="G301">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12131,8 +12805,11 @@
         <f t="array" ref="H301">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1169.583136458</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301" s="1">
+        <v>601.70624999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -12148,9 +12825,8 @@
       <c r="E302" t="s">
         <v>9</v>
       </c>
-      <c r="F302" t="str" cm="1">
-        <f t="array" ref="F302">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-28 00:00:00</v>
+      <c r="F302" s="2">
+        <v>45593</v>
       </c>
       <c r="G302" t="str" cm="1">
         <f t="array" ref="G302">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12160,8 +12836,11 @@
         <f t="array" ref="H302">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1327.771292708</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302" s="1">
+        <v>592.42083333200003</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>10</v>
       </c>
@@ -12177,9 +12856,8 @@
       <c r="E303" t="s">
         <v>12</v>
       </c>
-      <c r="F303" t="str" cm="1">
-        <f t="array" ref="F303">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-29 00:00:00</v>
+      <c r="F303" s="2">
+        <v>45594</v>
       </c>
       <c r="G303" t="str" cm="1">
         <f t="array" ref="G303">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12189,8 +12867,11 @@
         <f t="array" ref="H303">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1373.822583333</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303" s="1">
+        <v>605.62187500000005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -12206,9 +12887,8 @@
       <c r="E304" t="s">
         <v>9</v>
       </c>
-      <c r="F304" t="str" cm="1">
-        <f t="array" ref="F304">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-30 00:00:00</v>
+      <c r="F304" s="2">
+        <v>45595</v>
       </c>
       <c r="G304" t="str" cm="1">
         <f t="array" ref="G304">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12218,8 +12898,11 @@
         <f t="array" ref="H304">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1281.563908333</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I304" s="1">
+        <v>596.211458333</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>10</v>
       </c>
@@ -12235,9 +12918,8 @@
       <c r="E305" t="s">
         <v>12</v>
       </c>
-      <c r="F305" t="str" cm="1">
-        <f t="array" ref="F305">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-10-31 00:00:00</v>
+      <c r="F305" s="2">
+        <v>45596</v>
       </c>
       <c r="G305" t="str" cm="1">
         <f t="array" ref="G305">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12247,8 +12929,11 @@
         <f t="array" ref="H305">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1271.198984375</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I305" s="1">
+        <v>585.07500000000005</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -12264,9 +12949,8 @@
       <c r="E306" t="s">
         <v>9</v>
       </c>
-      <c r="F306" t="str" cm="1">
-        <f t="array" ref="F306">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-01 00:00:00</v>
+      <c r="F306" s="2">
+        <v>45597</v>
       </c>
       <c r="G306" t="str" cm="1">
         <f t="array" ref="G306">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12276,8 +12960,11 @@
         <f t="array" ref="H306">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1263.106315625</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I306" s="1">
+        <v>532.18333333300006</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -12293,9 +12980,8 @@
       <c r="E307" t="s">
         <v>12</v>
       </c>
-      <c r="F307" t="str" cm="1">
-        <f t="array" ref="F307">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-02 00:00:00</v>
+      <c r="F307" s="2">
+        <v>45598</v>
       </c>
       <c r="G307" t="str" cm="1">
         <f t="array" ref="G307">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12305,8 +12991,11 @@
         <f t="array" ref="H307">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1152.720891666</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I307" s="1">
+        <v>529.82291666599997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -12322,9 +13011,8 @@
       <c r="E308" t="s">
         <v>9</v>
       </c>
-      <c r="F308" t="str" cm="1">
-        <f t="array" ref="F308">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-03 00:00:00</v>
+      <c r="F308" s="2">
+        <v>45599</v>
       </c>
       <c r="G308" t="str" cm="1">
         <f t="array" ref="G308">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12334,8 +13022,11 @@
         <f t="array" ref="H308">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1453.558569791</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I308" s="1">
+        <v>534.14062499900001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>10</v>
       </c>
@@ -12351,9 +13042,8 @@
       <c r="E309" t="s">
         <v>12</v>
       </c>
-      <c r="F309" t="str" cm="1">
-        <f t="array" ref="F309">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-04 00:00:00</v>
+      <c r="F309" s="2">
+        <v>45600</v>
       </c>
       <c r="G309" t="str" cm="1">
         <f t="array" ref="G309">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12363,8 +13053,11 @@
         <f t="array" ref="H309">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1336.599955208</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I309" s="1">
+        <v>546.11458333300004</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -12380,9 +13073,8 @@
       <c r="E310" t="s">
         <v>9</v>
       </c>
-      <c r="F310" t="str" cm="1">
-        <f t="array" ref="F310">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-05 00:00:00</v>
+      <c r="F310" s="2">
+        <v>45601</v>
       </c>
       <c r="G310" t="str" cm="1">
         <f t="array" ref="G310">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12392,8 +13084,11 @@
         <f t="array" ref="H310">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1293.545710416</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I310" s="1">
+        <v>538.69791666599997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -12409,9 +13104,8 @@
       <c r="E311" t="s">
         <v>12</v>
       </c>
-      <c r="F311" t="str" cm="1">
-        <f t="array" ref="F311">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-06 00:00:00</v>
+      <c r="F311" s="2">
+        <v>45602</v>
       </c>
       <c r="G311" t="str" cm="1">
         <f t="array" ref="G311">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12421,8 +13115,11 @@
         <f t="array" ref="H311">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1227.146868750</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I311" s="1">
+        <v>523.12812499899997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -12438,9 +13135,8 @@
       <c r="E312" t="s">
         <v>9</v>
       </c>
-      <c r="F312" t="str" cm="1">
-        <f t="array" ref="F312">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-07 00:00:00</v>
+      <c r="F312" s="2">
+        <v>45603</v>
       </c>
       <c r="G312" t="str" cm="1">
         <f t="array" ref="G312">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12450,8 +13146,11 @@
         <f t="array" ref="H312">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1362.998643750</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I312" s="1">
+        <v>525.18437499900006</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>10</v>
       </c>
@@ -12467,9 +13166,8 @@
       <c r="E313" t="s">
         <v>12</v>
       </c>
-      <c r="F313" t="str" cm="1">
-        <f t="array" ref="F313">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-08 00:00:00</v>
+      <c r="F313" s="2">
+        <v>45604</v>
       </c>
       <c r="G313" t="str" cm="1">
         <f t="array" ref="G313">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12479,8 +13177,11 @@
         <f t="array" ref="H313">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1286.166416666</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I313" s="1">
+        <v>531.28854166600001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -12496,9 +13197,8 @@
       <c r="E314" t="s">
         <v>9</v>
       </c>
-      <c r="F314" t="str" cm="1">
-        <f t="array" ref="F314">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-09 00:00:00</v>
+      <c r="F314" s="2">
+        <v>45605</v>
       </c>
       <c r="G314" t="str" cm="1">
         <f t="array" ref="G314">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12508,8 +13208,11 @@
         <f t="array" ref="H314">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1232.701077083</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I314" s="1">
+        <v>510.65104166599997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -12525,9 +13228,8 @@
       <c r="E315" t="s">
         <v>12</v>
       </c>
-      <c r="F315" t="str" cm="1">
-        <f t="array" ref="F315">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-10 00:00:00</v>
+      <c r="F315" s="2">
+        <v>45606</v>
       </c>
       <c r="G315" t="str" cm="1">
         <f t="array" ref="G315">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12537,8 +13239,11 @@
         <f t="array" ref="H315">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1238.300035416</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I315" s="1">
+        <v>490.71770833200003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -12554,9 +13259,8 @@
       <c r="E316" t="s">
         <v>9</v>
       </c>
-      <c r="F316" t="str" cm="1">
-        <f t="array" ref="F316">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-11 00:00:00</v>
+      <c r="F316" s="2">
+        <v>45607</v>
       </c>
       <c r="G316" t="str" cm="1">
         <f t="array" ref="G316">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12566,8 +13270,11 @@
         <f t="array" ref="H316">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1165.744352083</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I316" s="1">
+        <v>496.05312500000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>10</v>
       </c>
@@ -12583,9 +13290,8 @@
       <c r="E317" t="s">
         <v>12</v>
       </c>
-      <c r="F317" t="str" cm="1">
-        <f t="array" ref="F317">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-12 00:00:00</v>
+      <c r="F317" s="2">
+        <v>45608</v>
       </c>
       <c r="G317" t="str" cm="1">
         <f t="array" ref="G317">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12595,8 +13301,11 @@
         <f t="array" ref="H317">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1460.559742708</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I317" s="1">
+        <v>515.07812499900001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -12612,9 +13321,8 @@
       <c r="E318" t="s">
         <v>9</v>
       </c>
-      <c r="F318" t="str" cm="1">
-        <f t="array" ref="F318">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-13 00:00:00</v>
+      <c r="F318" s="2">
+        <v>45609</v>
       </c>
       <c r="G318" t="str" cm="1">
         <f t="array" ref="G318">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12624,8 +13332,11 @@
         <f t="array" ref="H318">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1788.581250000</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I318" s="1">
+        <v>523.78124999900001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>10</v>
       </c>
@@ -12641,9 +13352,8 @@
       <c r="E319" t="s">
         <v>12</v>
       </c>
-      <c r="F319" t="str" cm="1">
-        <f t="array" ref="F319">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-14 00:00:00</v>
+      <c r="F319" s="2">
+        <v>45610</v>
       </c>
       <c r="G319" t="str" cm="1">
         <f t="array" ref="G319">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12653,8 +13363,11 @@
         <f t="array" ref="H319">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1610.751564583</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I319" s="1">
+        <v>539.51145833299995</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -12670,9 +13383,8 @@
       <c r="E320" t="s">
         <v>9</v>
       </c>
-      <c r="F320" t="str" cm="1">
-        <f t="array" ref="F320">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-15 00:00:00</v>
+      <c r="F320" s="2">
+        <v>45611</v>
       </c>
       <c r="G320" t="str" cm="1">
         <f t="array" ref="G320">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12682,8 +13394,11 @@
         <f t="array" ref="H320">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1372.107637500</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I320" s="1">
+        <v>532.91666666599997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>10</v>
       </c>
@@ -12699,9 +13414,8 @@
       <c r="E321" t="s">
         <v>12</v>
       </c>
-      <c r="F321" t="str" cm="1">
-        <f t="array" ref="F321">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-16 00:00:00</v>
+      <c r="F321" s="2">
+        <v>45612</v>
       </c>
       <c r="G321" t="str" cm="1">
         <f t="array" ref="G321">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12711,8 +13425,11 @@
         <f t="array" ref="H321">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1040.340601041</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I321" s="1">
+        <v>540.10729166600004</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -12728,9 +13445,8 @@
       <c r="E322" t="s">
         <v>9</v>
       </c>
-      <c r="F322" t="str" cm="1">
-        <f t="array" ref="F322">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-17 00:00:00</v>
+      <c r="F322" s="2">
+        <v>45613</v>
       </c>
       <c r="G322" t="str" cm="1">
         <f t="array" ref="G322">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12740,8 +13456,11 @@
         <f t="array" ref="H322">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1227.345596875</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I322" s="1">
+        <v>545.58124999999995</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12757,9 +13476,8 @@
       <c r="E323" t="s">
         <v>12</v>
       </c>
-      <c r="F323" t="str" cm="1">
-        <f t="array" ref="F323">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-18 00:00:00</v>
+      <c r="F323" s="2">
+        <v>45614</v>
       </c>
       <c r="G323" t="str" cm="1">
         <f t="array" ref="G323">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12769,8 +13487,11 @@
         <f t="array" ref="H323">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1349.357876041</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I323" s="1">
+        <v>553.27812500100003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -12786,9 +13507,8 @@
       <c r="E324" t="s">
         <v>9</v>
       </c>
-      <c r="F324" t="str" cm="1">
-        <f t="array" ref="F324">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-19 00:00:00</v>
+      <c r="F324" s="2">
+        <v>45615</v>
       </c>
       <c r="G324" t="str" cm="1">
         <f t="array" ref="G324">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12798,8 +13518,11 @@
         <f t="array" ref="H324">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1422.036822916</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I324" s="1">
+        <v>542.38750000200002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>10</v>
       </c>
@@ -12815,9 +13538,8 @@
       <c r="E325" t="s">
         <v>12</v>
       </c>
-      <c r="F325" t="str" cm="1">
-        <f t="array" ref="F325">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-20 00:00:00</v>
+      <c r="F325" s="2">
+        <v>45616</v>
       </c>
       <c r="G325" t="str" cm="1">
         <f t="array" ref="G325">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12827,8 +13549,11 @@
         <f t="array" ref="H325">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1226.529550000</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I325" s="1">
+        <v>533.76354166900001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -12844,9 +13569,8 @@
       <c r="E326" t="s">
         <v>9</v>
       </c>
-      <c r="F326" t="str" cm="1">
-        <f t="array" ref="F326">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-21 00:00:00</v>
+      <c r="F326" s="2">
+        <v>45617</v>
       </c>
       <c r="G326" t="str" cm="1">
         <f t="array" ref="G326">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12856,8 +13580,11 @@
         <f t="array" ref="H326">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1464.515034375</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I326" s="1">
+        <v>541.87500000399996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -12873,9 +13600,8 @@
       <c r="E327" t="s">
         <v>12</v>
       </c>
-      <c r="F327" t="str" cm="1">
-        <f t="array" ref="F327">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-22 00:00:00</v>
+      <c r="F327" s="2">
+        <v>45618</v>
       </c>
       <c r="G327" t="str" cm="1">
         <f t="array" ref="G327">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12885,8 +13611,11 @@
         <f t="array" ref="H327">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1716.614821052</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I327" s="1">
+        <v>544.31635638700004</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -12902,9 +13631,8 @@
       <c r="E328" t="s">
         <v>9</v>
       </c>
-      <c r="F328" t="str" cm="1">
-        <f t="array" ref="F328">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-23 00:00:00</v>
+      <c r="F328" s="2">
+        <v>45619</v>
       </c>
       <c r="G328" t="str" cm="1">
         <f t="array" ref="G328">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12914,8 +13642,11 @@
         <f t="array" ref="H328">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1507.149135416</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I328" s="1">
+        <v>526.49895833899996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>10</v>
       </c>
@@ -12931,9 +13662,8 @@
       <c r="E329" t="s">
         <v>12</v>
       </c>
-      <c r="F329" t="str" cm="1">
-        <f t="array" ref="F329">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-24 00:00:00</v>
+      <c r="F329" s="2">
+        <v>45620</v>
       </c>
       <c r="G329" t="str" cm="1">
         <f t="array" ref="G329">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12943,8 +13673,11 @@
         <f t="array" ref="H329">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1336.079005208</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I329" s="1">
+        <v>515.29791667300003</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -12960,9 +13693,8 @@
       <c r="E330" t="s">
         <v>9</v>
       </c>
-      <c r="F330" t="str" cm="1">
-        <f t="array" ref="F330">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-25 00:00:00</v>
+      <c r="F330" s="2">
+        <v>45621</v>
       </c>
       <c r="G330" t="str" cm="1">
         <f t="array" ref="G330">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -12972,8 +13704,11 @@
         <f t="array" ref="H330">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1668.512218750</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I330" s="1">
+        <v>529.15416667399995</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>10</v>
       </c>
@@ -12989,9 +13724,8 @@
       <c r="E331" t="s">
         <v>12</v>
       </c>
-      <c r="F331" t="str" cm="1">
-        <f t="array" ref="F331">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-26 00:00:00</v>
+      <c r="F331" s="2">
+        <v>45622</v>
       </c>
       <c r="G331" t="str" cm="1">
         <f t="array" ref="G331">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13001,8 +13735,11 @@
         <f t="array" ref="H331">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1503.748410416</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I331" s="1">
+        <v>540.69270834200006</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -13018,9 +13755,8 @@
       <c r="E332" t="s">
         <v>9</v>
       </c>
-      <c r="F332" t="str" cm="1">
-        <f t="array" ref="F332">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-27 00:00:00</v>
+      <c r="F332" s="2">
+        <v>45623</v>
       </c>
       <c r="G332" t="str" cm="1">
         <f t="array" ref="G332">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13030,8 +13766,11 @@
         <f t="array" ref="H332">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1632.164750000</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I332" s="1">
+        <v>543.539583343</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>10</v>
       </c>
@@ -13047,9 +13786,8 @@
       <c r="E333" t="s">
         <v>12</v>
       </c>
-      <c r="F333" t="str" cm="1">
-        <f t="array" ref="F333">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-28 00:00:00</v>
+      <c r="F333" s="2">
+        <v>45624</v>
       </c>
       <c r="G333" t="str" cm="1">
         <f t="array" ref="G333">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13059,8 +13797,11 @@
         <f t="array" ref="H333">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1864.620729166</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I333" s="1">
+        <v>540.48020834399995</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -13076,9 +13817,8 @@
       <c r="E334" t="s">
         <v>9</v>
       </c>
-      <c r="F334" t="str" cm="1">
-        <f t="array" ref="F334">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-29 00:00:00</v>
+      <c r="F334" s="2">
+        <v>45625</v>
       </c>
       <c r="G334" t="str" cm="1">
         <f t="array" ref="G334">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13088,8 +13828,11 @@
         <f t="array" ref="H334">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1948.126822916</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I334" s="1">
+        <v>540.82604167800002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>10</v>
       </c>
@@ -13105,9 +13848,8 @@
       <c r="E335" t="s">
         <v>12</v>
       </c>
-      <c r="F335" t="str" cm="1">
-        <f t="array" ref="F335">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-11-30 00:00:00</v>
+      <c r="F335" s="2">
+        <v>45626</v>
       </c>
       <c r="G335" t="str" cm="1">
         <f t="array" ref="G335">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13117,8 +13859,11 @@
         <f t="array" ref="H335">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2235.588760416</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I335" s="1">
+        <v>537.24375001299995</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -13134,9 +13879,8 @@
       <c r="E336" t="s">
         <v>9</v>
       </c>
-      <c r="F336" t="str" cm="1">
-        <f t="array" ref="F336">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-01 00:00:00</v>
+      <c r="F336" s="2">
+        <v>45627</v>
       </c>
       <c r="G336" t="str" cm="1">
         <f t="array" ref="G336">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13146,8 +13890,11 @@
         <f t="array" ref="H336">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2439.541406250</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I336" s="1">
+        <v>532.49583334699992</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>10</v>
       </c>
@@ -13163,9 +13910,8 @@
       <c r="E337" t="s">
         <v>12</v>
       </c>
-      <c r="F337" t="str" cm="1">
-        <f t="array" ref="F337">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-02 00:00:00</v>
+      <c r="F337" s="2">
+        <v>45628</v>
       </c>
       <c r="G337" t="str" cm="1">
         <f t="array" ref="G337">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13175,8 +13921,11 @@
         <f t="array" ref="H337">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2525.688802083</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I337" s="1">
+        <v>543.21354168100004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -13192,9 +13941,8 @@
       <c r="E338" t="s">
         <v>9</v>
       </c>
-      <c r="F338" t="str" cm="1">
-        <f t="array" ref="F338">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-03 00:00:00</v>
+      <c r="F338" s="2">
+        <v>45629</v>
       </c>
       <c r="G338" t="str" cm="1">
         <f t="array" ref="G338">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13204,8 +13952,11 @@
         <f t="array" ref="H338">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2499.193145833</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I338" s="1">
+        <v>540.52395834899994</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>10</v>
       </c>
@@ -13221,9 +13972,8 @@
       <c r="E339" t="s">
         <v>12</v>
       </c>
-      <c r="F339" t="str" cm="1">
-        <f t="array" ref="F339">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-04 00:00:00</v>
+      <c r="F339" s="2">
+        <v>45630</v>
       </c>
       <c r="G339" t="str" cm="1">
         <f t="array" ref="G339">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13233,8 +13983,11 @@
         <f t="array" ref="H339">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2626.151020833</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I339" s="1">
+        <v>531.25833334999993</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -13250,9 +14003,8 @@
       <c r="E340" t="s">
         <v>9</v>
       </c>
-      <c r="F340" t="str" cm="1">
-        <f t="array" ref="F340">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-05 00:00:00</v>
+      <c r="F340" s="2">
+        <v>45631</v>
       </c>
       <c r="G340" t="str" cm="1">
         <f t="array" ref="G340">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13262,8 +14014,11 @@
         <f t="array" ref="H340">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2468.264770833</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I340" s="1">
+        <v>525.92812501799995</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>10</v>
       </c>
@@ -13279,9 +14034,8 @@
       <c r="E341" t="s">
         <v>12</v>
       </c>
-      <c r="F341" t="str" cm="1">
-        <f t="array" ref="F341">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-06 00:00:00</v>
+      <c r="F341" s="2">
+        <v>45632</v>
       </c>
       <c r="G341" t="str" cm="1">
         <f t="array" ref="G341">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13291,8 +14045,11 @@
         <f t="array" ref="H341">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2821.970791666</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I341" s="1">
+        <v>538.67604168499997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -13308,9 +14065,8 @@
       <c r="E342" t="s">
         <v>9</v>
       </c>
-      <c r="F342" t="str" cm="1">
-        <f t="array" ref="F342">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-07 00:00:00</v>
+      <c r="F342" s="2">
+        <v>45633</v>
       </c>
       <c r="G342" t="str" cm="1">
         <f t="array" ref="G342">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13320,8 +14076,11 @@
         <f t="array" ref="H342">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2451.563114583</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I342" s="1">
+        <v>521.50416668599996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -13337,9 +14096,8 @@
       <c r="E343" t="s">
         <v>12</v>
       </c>
-      <c r="F343" t="str" cm="1">
-        <f t="array" ref="F343">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-08 00:00:00</v>
+      <c r="F343" s="2">
+        <v>45634</v>
       </c>
       <c r="G343" t="str" cm="1">
         <f t="array" ref="G343">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13349,8 +14107,11 @@
         <f t="array" ref="H343">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1722.828532978</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I343" s="1">
+        <v>520.05890959500005</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -13366,9 +14127,8 @@
       <c r="E344" t="s">
         <v>9</v>
       </c>
-      <c r="F344" t="str" cm="1">
-        <f t="array" ref="F344">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-09 00:00:00</v>
+      <c r="F344" s="2">
+        <v>45635</v>
       </c>
       <c r="G344" t="str" cm="1">
         <f t="array" ref="G344">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13378,8 +14138,11 @@
         <f t="array" ref="H344">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1666.859510416</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I344" s="1">
+        <v>529.74687502200004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>10</v>
       </c>
@@ -13395,9 +14158,8 @@
       <c r="E345" t="s">
         <v>12</v>
       </c>
-      <c r="F345" t="str" cm="1">
-        <f t="array" ref="F345">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-10 00:00:00</v>
+      <c r="F345" s="2">
+        <v>45636</v>
       </c>
       <c r="G345" t="str" cm="1">
         <f t="array" ref="G345">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13407,8 +14169,11 @@
         <f t="array" ref="H345">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1354.801679166</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I345" s="1">
+        <v>541.98958335600003</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -13424,9 +14189,8 @@
       <c r="E346" t="s">
         <v>9</v>
       </c>
-      <c r="F346" t="str" cm="1">
-        <f t="array" ref="F346">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-11 00:00:00</v>
+      <c r="F346" s="2">
+        <v>45637</v>
       </c>
       <c r="G346" t="str" cm="1">
         <f t="array" ref="G346">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13436,8 +14200,11 @@
         <f t="array" ref="H346">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1441.306555208</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I346" s="1">
+        <v>550.47083335699995</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>10</v>
       </c>
@@ -13453,9 +14220,8 @@
       <c r="E347" t="s">
         <v>12</v>
       </c>
-      <c r="F347" t="str" cm="1">
-        <f t="array" ref="F347">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-12 00:00:00</v>
+      <c r="F347" s="2">
+        <v>45638</v>
       </c>
       <c r="G347" t="str" cm="1">
         <f t="array" ref="G347">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13465,8 +14231,11 @@
         <f t="array" ref="H347">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2589.392687500</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I347" s="1">
+        <v>546.31458335800005</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -13482,9 +14251,8 @@
       <c r="E348" t="s">
         <v>9</v>
       </c>
-      <c r="F348" t="str" cm="1">
-        <f t="array" ref="F348">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-13 00:00:00</v>
+      <c r="F348" s="2">
+        <v>45639</v>
       </c>
       <c r="G348" t="str" cm="1">
         <f t="array" ref="G348">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13494,8 +14262,11 @@
         <f t="array" ref="H348">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>3100.594645833</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I348" s="1">
+        <v>542.26458335899997</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>10</v>
       </c>
@@ -13511,9 +14282,8 @@
       <c r="E349" t="s">
         <v>12</v>
       </c>
-      <c r="F349" t="str" cm="1">
-        <f t="array" ref="F349">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-14 00:00:00</v>
+      <c r="F349" s="2">
+        <v>45640</v>
       </c>
       <c r="G349" t="str" cm="1">
         <f t="array" ref="G349">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13523,8 +14293,11 @@
         <f t="array" ref="H349">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2951.227750000</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I349" s="1">
+        <v>504.77604169300002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -13540,9 +14313,8 @@
       <c r="E350" t="s">
         <v>9</v>
       </c>
-      <c r="F350" t="str" cm="1">
-        <f t="array" ref="F350">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-15 00:00:00</v>
+      <c r="F350" s="2">
+        <v>45641</v>
       </c>
       <c r="G350" t="str" cm="1">
         <f t="array" ref="G350">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13552,8 +14324,11 @@
         <f t="array" ref="H350">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2464.074625000</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350" s="1">
+        <v>502.01041669400001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>10</v>
       </c>
@@ -13569,9 +14344,8 @@
       <c r="E351" t="s">
         <v>12</v>
       </c>
-      <c r="F351" t="str" cm="1">
-        <f t="array" ref="F351">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-16 00:00:00</v>
+      <c r="F351" s="2">
+        <v>45642</v>
       </c>
       <c r="G351" t="str" cm="1">
         <f t="array" ref="G351">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13581,8 +14355,11 @@
         <f t="array" ref="H351">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1921.359552083</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351" s="1">
+        <v>476.70416669500003</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -13598,9 +14375,8 @@
       <c r="E352" t="s">
         <v>9</v>
       </c>
-      <c r="F352" t="str" cm="1">
-        <f t="array" ref="F352">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-17 00:00:00</v>
+      <c r="F352" s="2">
+        <v>45643</v>
       </c>
       <c r="G352" t="str" cm="1">
         <f t="array" ref="G352">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13610,8 +14386,11 @@
         <f t="array" ref="H352">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1554.764385416</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I352" s="1">
+        <v>453.59166669599995</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>10</v>
       </c>
@@ -13627,9 +14406,8 @@
       <c r="E353" t="s">
         <v>12</v>
       </c>
-      <c r="F353" t="str" cm="1">
-        <f t="array" ref="F353">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-18 00:00:00</v>
+      <c r="F353" s="2">
+        <v>45644</v>
       </c>
       <c r="G353" t="str" cm="1">
         <f t="array" ref="G353">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13639,8 +14417,11 @@
         <f t="array" ref="H353">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1693.396041666</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I353" s="1">
+        <v>459.98645836399999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -13656,9 +14437,8 @@
       <c r="E354" t="s">
         <v>9</v>
       </c>
-      <c r="F354" t="str" cm="1">
-        <f t="array" ref="F354">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-19 00:00:00</v>
+      <c r="F354" s="2">
+        <v>45645</v>
       </c>
       <c r="G354" t="str" cm="1">
         <f t="array" ref="G354">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13668,8 +14448,11 @@
         <f t="array" ref="H354">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2070.457177083</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I354" s="1">
+        <v>460.83958336500001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>10</v>
       </c>
@@ -13685,9 +14468,8 @@
       <c r="E355" t="s">
         <v>12</v>
       </c>
-      <c r="F355" t="str" cm="1">
-        <f t="array" ref="F355">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-20 00:00:00</v>
+      <c r="F355" s="2">
+        <v>45646</v>
       </c>
       <c r="G355" t="str" cm="1">
         <f t="array" ref="G355">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13697,8 +14479,11 @@
         <f t="array" ref="H355">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2339.013260416</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I355" s="1">
+        <v>481.06562503299995</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -13714,9 +14499,8 @@
       <c r="E356" t="s">
         <v>9</v>
       </c>
-      <c r="F356" t="str" cm="1">
-        <f t="array" ref="F356">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-21 00:00:00</v>
+      <c r="F356" s="2">
+        <v>45647</v>
       </c>
       <c r="G356" t="str" cm="1">
         <f t="array" ref="G356">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13726,8 +14510,11 @@
         <f t="array" ref="H356">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2844.783614583</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I356" s="1">
+        <v>501.76770836700001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>10</v>
       </c>
@@ -13743,9 +14530,8 @@
       <c r="E357" t="s">
         <v>12</v>
       </c>
-      <c r="F357" t="str" cm="1">
-        <f t="array" ref="F357">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-22 00:00:00</v>
+      <c r="F357" s="2">
+        <v>45648</v>
       </c>
       <c r="G357" t="str" cm="1">
         <f t="array" ref="G357">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13755,8 +14541,11 @@
         <f t="array" ref="H357">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>3726.816354166</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I357" s="1">
+        <v>518.66041670100003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -13772,9 +14561,8 @@
       <c r="E358" t="s">
         <v>9</v>
       </c>
-      <c r="F358" t="str" cm="1">
-        <f t="array" ref="F358">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-23 00:00:00</v>
+      <c r="F358" s="2">
+        <v>45649</v>
       </c>
       <c r="G358" t="str" cm="1">
         <f t="array" ref="G358">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13784,8 +14572,11 @@
         <f t="array" ref="H358">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>3932.402729166</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I358" s="1">
+        <v>523.87187503600001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -13801,9 +14592,8 @@
       <c r="E359" t="s">
         <v>12</v>
       </c>
-      <c r="F359" t="str" cm="1">
-        <f t="array" ref="F359">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-24 00:00:00</v>
+      <c r="F359" s="2">
+        <v>45650</v>
       </c>
       <c r="G359" t="str" cm="1">
         <f t="array" ref="G359">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13813,8 +14603,11 @@
         <f t="array" ref="H359">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2529.984645833</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I359" s="1">
+        <v>531.70104170299999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -13830,9 +14623,8 @@
       <c r="E360" t="s">
         <v>9</v>
       </c>
-      <c r="F360" t="str" cm="1">
-        <f t="array" ref="F360">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-25 00:00:00</v>
+      <c r="F360" s="2">
+        <v>45651</v>
       </c>
       <c r="G360" t="str" cm="1">
         <f t="array" ref="G360">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13842,8 +14634,11 @@
         <f t="array" ref="H360">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2461.537156250</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I360" s="1">
+        <v>536.34062503799998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>10</v>
       </c>
@@ -13859,9 +14654,8 @@
       <c r="E361" t="s">
         <v>12</v>
       </c>
-      <c r="F361" t="str" cm="1">
-        <f t="array" ref="F361">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-26 00:00:00</v>
+      <c r="F361" s="2">
+        <v>45652</v>
       </c>
       <c r="G361" t="str" cm="1">
         <f t="array" ref="G361">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13871,8 +14665,11 @@
         <f t="array" ref="H361">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2864.000625000</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I361" s="1">
+        <v>524.86041670500003</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -13888,9 +14685,8 @@
       <c r="E362" t="s">
         <v>9</v>
       </c>
-      <c r="F362" t="str" cm="1">
-        <f t="array" ref="F362">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-27 00:00:00</v>
+      <c r="F362" s="2">
+        <v>45653</v>
       </c>
       <c r="G362" t="str" cm="1">
         <f t="array" ref="G362">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13900,8 +14696,11 @@
         <f t="array" ref="H362">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>2633.734729166</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I362" s="1">
+        <v>536.42916670599993</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>10</v>
       </c>
@@ -13917,9 +14716,8 @@
       <c r="E363" t="s">
         <v>12</v>
       </c>
-      <c r="F363" t="str" cm="1">
-        <f t="array" ref="F363">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-28 00:00:00</v>
+      <c r="F363" s="2">
+        <v>45654</v>
       </c>
       <c r="G363" t="str" cm="1">
         <f t="array" ref="G363">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13929,8 +14727,11 @@
         <f t="array" ref="H363">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1560.407110416</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I363" s="1">
+        <v>536.07500004100007</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>5</v>
       </c>
@@ -13946,9 +14747,8 @@
       <c r="E364" t="s">
         <v>9</v>
       </c>
-      <c r="F364" t="str" cm="1">
-        <f t="array" ref="F364">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-29 00:00:00</v>
+      <c r="F364" s="2">
+        <v>45655</v>
       </c>
       <c r="G364" t="str" cm="1">
         <f t="array" ref="G364">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13958,8 +14758,11 @@
         <f t="array" ref="H364">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1373.702002083</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I364" s="1">
+        <v>516.610416708</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>10</v>
       </c>
@@ -13975,9 +14778,8 @@
       <c r="E365" t="s">
         <v>12</v>
       </c>
-      <c r="F365" t="str" cm="1">
-        <f t="array" ref="F365">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-30 00:00:00</v>
+      <c r="F365" s="2">
+        <v>45656</v>
       </c>
       <c r="G365" t="str" cm="1">
         <f t="array" ref="G365">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -13987,8 +14789,11 @@
         <f t="array" ref="H365">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1471.284468750</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I365" s="1">
+        <v>516.78645837600004</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -14004,9 +14809,8 @@
       <c r="E366" t="s">
         <v>9</v>
       </c>
-      <c r="F366" t="str" cm="1">
-        <f t="array" ref="F366">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2024-12-31 00:00:00</v>
+      <c r="F366" s="2">
+        <v>45657</v>
       </c>
       <c r="G366" t="str" cm="1">
         <f t="array" ref="G366">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -14016,8 +14820,11 @@
         <f t="array" ref="H366">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1586.221302083</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I366" s="1">
+        <v>510.98541671000004</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>10</v>
       </c>
@@ -14033,9 +14840,8 @@
       <c r="E367" t="s">
         <v>12</v>
       </c>
-      <c r="F367" t="str" cm="1">
-        <f t="array" ref="F367">INDEX(B:B, (ROW()-ROW(B$2))*2 + 2)</f>
-        <v>2025-01-01 00:00:00</v>
+      <c r="F367" s="2">
+        <v>45658</v>
       </c>
       <c r="G367" t="str" cm="1">
         <f t="array" ref="G367">INDEX(D:D, (ROW()-ROW(D$2))*2 + 2)</f>
@@ -14045,8 +14851,11 @@
         <f t="array" ref="H367">INDEX(D:D, (ROW()-ROW(D$2))*2 + 3)</f>
         <v>1671.964937500</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I367" s="1">
+        <v>509.021875045</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>5</v>
       </c>
